--- a/bronchomotor/source/bronchomotor.xlsx
+++ b/bronchomotor/source/bronchomotor.xlsx
@@ -19,6 +19,21 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A2">
+      <text>
+        <t xml:space="preserve">was bronchomotor-sympathetic-control</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -57,7 +72,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>bronchomotor-sympathetic-control</t>
+    <t>bronchomotor</t>
   </si>
   <si>
     <t>SPARC Bronchomotor Flatmap</t>
@@ -117,129 +132,132 @@
     <t>UBERON:0006457</t>
   </si>
   <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>snt1_1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>T2 spinal segment</t>
+  </si>
+  <si>
+    <t>UBERON:0006458</t>
+  </si>
+  <si>
+    <t>snt2_1</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>T3 spinal segment</t>
+  </si>
+  <si>
+    <t>UBERON:0006459</t>
+  </si>
+  <si>
+    <t>snt3_1</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>T4 spinal segment</t>
+  </si>
+  <si>
+    <t>UBERON:0006452</t>
+  </si>
+  <si>
+    <t>snt4_1</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>T5 spinal segment</t>
+  </si>
+  <si>
+    <t>UBERON:0006453</t>
+  </si>
+  <si>
+    <t>snt5_1</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>T6 spinal segment</t>
+  </si>
+  <si>
+    <t>UBERON:0006454</t>
+  </si>
+  <si>
+    <t>snt6_1</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>T7 spinal segment</t>
+  </si>
+  <si>
+    <t>UBERON:0006455</t>
+  </si>
+  <si>
+    <t>snt7_1</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>T8 spinal segment</t>
+  </si>
+  <si>
+    <t>UBERON:0006456</t>
+  </si>
+  <si>
+    <t>snt8_1</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>T9 spinal segment</t>
+  </si>
+  <si>
+    <t>UBERON:0006465</t>
+  </si>
+  <si>
+    <t>snt9_1</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>T10 spinal segment</t>
+  </si>
+  <si>
+    <t>UBERON:0006466</t>
+  </si>
+  <si>
+    <t>snt10_1</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>T11 spinal segment</t>
+  </si>
+  <si>
+    <t>UBERON:0006467</t>
+  </si>
+  <si>
     <t>B35</t>
   </si>
   <si>
-    <t>snt1_1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>T2 spinal segment</t>
-  </si>
-  <si>
-    <t>UBERON:0006458</t>
-  </si>
-  <si>
-    <t>snt2_1</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>T3 spinal segment</t>
-  </si>
-  <si>
-    <t>UBERON:0006459</t>
-  </si>
-  <si>
-    <t>snt3_1</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>T4 spinal segment</t>
-  </si>
-  <si>
-    <t>UBERON:0006452</t>
-  </si>
-  <si>
-    <t>snt4_1</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>T5 spinal segment</t>
-  </si>
-  <si>
-    <t>UBERON:0006453</t>
-  </si>
-  <si>
-    <t>snt5_1</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>T6 spinal segment</t>
-  </si>
-  <si>
-    <t>UBERON:0006454</t>
-  </si>
-  <si>
-    <t>snt6_1</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>T7 spinal segment</t>
-  </si>
-  <si>
-    <t>UBERON:0006455</t>
-  </si>
-  <si>
-    <t>snt7_1</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>T8 spinal segment</t>
-  </si>
-  <si>
-    <t>UBERON:0006456</t>
-  </si>
-  <si>
-    <t>snt8_1</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>T9 spinal segment</t>
-  </si>
-  <si>
-    <t>UBERON:0006465</t>
-  </si>
-  <si>
-    <t>snt9_1</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>T10 spinal segment</t>
-  </si>
-  <si>
-    <t>UBERON:0006466</t>
-  </si>
-  <si>
-    <t>snt10_1</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>T11 spinal segment</t>
-  </si>
-  <si>
-    <t>UBERON:0006467</t>
-  </si>
-  <si>
     <t>snt11_1</t>
   </si>
   <si>
@@ -277,9 +295,6 @@
   </si>
   <si>
     <t>snl1_1</t>
-  </si>
-  <si>
-    <t>B15</t>
   </si>
   <si>
     <t>Segment of Spinal Cord</t>
@@ -2480,6 +2495,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -2492,7 +2508,6 @@
     <font>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -2554,7 +2569,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2565,6 +2580,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6B8AF"/>
         <bgColor rgb="FFE6B8AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2592,7 +2613,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2632,6 +2653,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2647,13 +2671,13 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2662,7 +2686,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2671,22 +2695,25 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2698,7 +2725,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2710,10 +2737,10 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2737,16 +2764,16 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2755,10 +2782,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
@@ -2768,22 +2795,22 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3076,7 +3103,8 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3176,15 +3204,15 @@
       <c r="J2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -3197,15 +3225,15 @@
       <c r="J3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -3218,10 +3246,10 @@
       <c r="J4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="14">
         <v>6.0</v>
       </c>
     </row>
@@ -3239,15 +3267,15 @@
       <c r="J5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -3260,15 +3288,15 @@
       <c r="J6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -3281,10 +3309,10 @@
       <c r="J7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="14">
         <v>6.0</v>
       </c>
     </row>
@@ -3302,15 +3330,15 @@
       <c r="J8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -3323,15 +3351,15 @@
       <c r="J9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -3344,10 +3372,10 @@
       <c r="J10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="14">
         <v>6.0</v>
       </c>
     </row>
@@ -3365,15 +3393,15 @@
       <c r="J11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -3383,93 +3411,93 @@
         <v>62</v>
       </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="13" t="s">
+      <c r="J12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="13">
+      <c r="M12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>64</v>
+      <c r="A13" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" s="13">
+      <c r="J13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="15" t="s">
         <v>70</v>
       </c>
+      <c r="C14" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="I14" s="12"/>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="14">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="14">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" s="13">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="13">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="13" t="b">
+      <c r="E16" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="19" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3483,37 +3511,37 @@
       <c r="C17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="14" t="s">
+      <c r="L17" s="21"/>
+      <c r="M17" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>86</v>
       </c>
       <c r="I18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="22" t="s">
         <v>89</v>
       </c>
       <c r="I19" s="12"/>
@@ -3522,34 +3550,34 @@
       <c r="A20" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="22" t="s">
         <v>92</v>
       </c>
       <c r="I20" s="12"/>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="22" t="s">
         <v>98</v>
       </c>
       <c r="I22" s="12"/>
@@ -3558,34 +3586,34 @@
       <c r="A23" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="22" t="s">
         <v>101</v>
       </c>
       <c r="I23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="22" t="s">
         <v>104</v>
       </c>
       <c r="I24" s="12"/>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="22" t="s">
         <v>107</v>
       </c>
       <c r="I25" s="12"/>
@@ -3594,22 +3622,22 @@
       <c r="A26" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="22" t="s">
         <v>113</v>
       </c>
       <c r="I27" s="12"/>
@@ -3618,70 +3646,70 @@
       <c r="A28" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="23" t="s">
         <v>121</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="23"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="28" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3692,34 +3720,34 @@
       <c r="B34" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="23"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36">
-      <c r="A36" s="14" t="s">
-        <v>22</v>
+      <c r="A36" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="23"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
@@ -3728,34 +3756,34 @@
       <c r="B37" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I37" s="23"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>139</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I38" s="23"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>141</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="23"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
@@ -3764,34 +3792,34 @@
       <c r="B40" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I40" s="23"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I41" s="23"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>147</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I42" s="23"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
@@ -3800,74 +3828,74 @@
       <c r="B43" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="23"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>151</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I44" s="23"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="45">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>153</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I45" s="23"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="23" t="s">
         <v>156</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="I46" s="23"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="23" t="s">
         <v>158</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I47" s="23"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="23" t="s">
         <v>161</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I48" s="23"/>
+      <c r="I48" s="24"/>
     </row>
     <row r="49">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="23" t="s">
         <v>163</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -3879,7 +3907,7 @@
       <c r="A50" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>165</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -3888,10 +3916,10 @@
       <c r="I50" s="12"/>
     </row>
     <row r="51">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="23" t="s">
         <v>167</v>
       </c>
       <c r="C51" s="11" t="s">
@@ -3900,10 +3928,10 @@
       <c r="I51" s="12"/>
     </row>
     <row r="52">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="23" t="s">
         <v>169</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -3915,7 +3943,7 @@
       <c r="A53" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="23" t="s">
         <v>171</v>
       </c>
       <c r="C53" s="11" t="s">
@@ -3924,10 +3952,10 @@
       <c r="I53" s="12"/>
     </row>
     <row r="54">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="23" t="s">
         <v>173</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -3939,7 +3967,7 @@
       <c r="A55" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="23" t="s">
         <v>175</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -3948,10 +3976,10 @@
       <c r="I55" s="12"/>
     </row>
     <row r="56">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="23" t="s">
         <v>177</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -3960,10 +3988,10 @@
       <c r="I56" s="12"/>
     </row>
     <row r="57">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="23" t="s">
         <v>179</v>
       </c>
       <c r="C57" s="11" t="s">
@@ -3975,7 +4003,7 @@
       <c r="A58" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="17" t="s">
         <v>181</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -3984,10 +4012,10 @@
       <c r="I58" s="12"/>
     </row>
     <row r="59">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="17" t="s">
         <v>183</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -3996,13 +4024,13 @@
       <c r="I59" s="12"/>
     </row>
     <row r="60">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="15" t="s">
         <v>184</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="22" t="s">
         <v>186</v>
       </c>
       <c r="I60" s="12"/>
@@ -4014,31 +4042,31 @@
       <c r="B61" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="22" t="s">
         <v>189</v>
       </c>
       <c r="I61" s="12"/>
     </row>
     <row r="62">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="15" t="s">
         <v>190</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="22" t="s">
         <v>192</v>
       </c>
       <c r="I62" s="12"/>
     </row>
     <row r="63">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="22" t="s">
         <v>195</v>
       </c>
       <c r="I63" s="12"/>
@@ -4050,31 +4078,31 @@
       <c r="B64" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="22" t="s">
         <v>198</v>
       </c>
       <c r="I64" s="12"/>
     </row>
     <row r="65">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="15" t="s">
         <v>199</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="22" t="s">
         <v>201</v>
       </c>
       <c r="I65" s="12"/>
     </row>
     <row r="66">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="15" t="s">
         <v>202</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="22" t="s">
         <v>204</v>
       </c>
       <c r="I66" s="12"/>
@@ -4086,31 +4114,31 @@
       <c r="B67" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="22" t="s">
         <v>207</v>
       </c>
       <c r="I67" s="12"/>
     </row>
     <row r="68">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="15" t="s">
         <v>208</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="22" t="s">
         <v>210</v>
       </c>
       <c r="I68" s="12"/>
     </row>
     <row r="69">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="15" t="s">
         <v>211</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="22" t="s">
         <v>213</v>
       </c>
       <c r="I69" s="12"/>
@@ -4122,13 +4150,13 @@
       <c r="B70" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="22" t="s">
         <v>216</v>
       </c>
       <c r="I70" s="12"/>
     </row>
     <row r="71">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="15" t="s">
         <v>217</v>
       </c>
       <c r="B71" s="12" t="s">
@@ -4140,7 +4168,7 @@
       <c r="I71" s="12"/>
     </row>
     <row r="72">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="15" t="s">
         <v>220</v>
       </c>
       <c r="B72" s="12" t="s">
@@ -4155,34 +4183,34 @@
       <c r="A73" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="22" t="s">
         <v>225</v>
       </c>
       <c r="I73" s="12"/>
     </row>
     <row r="74">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="22" t="s">
         <v>225</v>
       </c>
       <c r="I74" s="12"/>
     </row>
     <row r="75">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="22" t="s">
         <v>225</v>
       </c>
       <c r="I75" s="12"/>
@@ -4191,34 +4219,34 @@
       <c r="A76" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="22" t="s">
         <v>225</v>
       </c>
       <c r="I76" s="12"/>
     </row>
     <row r="77">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="22" t="s">
         <v>225</v>
       </c>
       <c r="I77" s="12"/>
     </row>
     <row r="78">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="22" t="s">
         <v>225</v>
       </c>
       <c r="I78" s="12"/>
@@ -4227,22 +4255,22 @@
       <c r="A79" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="22" t="s">
         <v>225</v>
       </c>
       <c r="I79" s="12"/>
     </row>
     <row r="80">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="22" t="s">
         <v>225</v>
       </c>
       <c r="I80" s="12"/>
@@ -4251,34 +4279,34 @@
       <c r="A81" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="22" t="s">
         <v>225</v>
       </c>
       <c r="I81" s="12"/>
     </row>
     <row r="82">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="22" t="s">
         <v>225</v>
       </c>
       <c r="I82" s="12"/>
     </row>
     <row r="83">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="22" t="s">
         <v>225</v>
       </c>
       <c r="I83" s="12"/>
@@ -4287,19 +4315,19 @@
       <c r="A84" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="22" t="s">
         <v>225</v>
       </c>
       <c r="I84" s="12"/>
     </row>
     <row r="85">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="23" t="s">
         <v>249</v>
       </c>
       <c r="C85" s="11" t="s">
@@ -4308,13 +4336,13 @@
       <c r="I85" s="12"/>
     </row>
     <row r="86">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="30" t="s">
         <v>252</v>
       </c>
       <c r="I86" s="12"/>
@@ -4323,34 +4351,34 @@
       <c r="A87" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="22" t="s">
         <v>255</v>
       </c>
       <c r="I87" s="12"/>
     </row>
     <row r="88">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="22" t="s">
         <v>255</v>
       </c>
       <c r="I88" s="12"/>
     </row>
     <row r="89">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="22" t="s">
         <v>255</v>
       </c>
       <c r="I89" s="12"/>
@@ -4359,34 +4387,34 @@
       <c r="A90" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="22" t="s">
         <v>255</v>
       </c>
       <c r="I90" s="12"/>
     </row>
     <row r="91">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="22" t="s">
         <v>255</v>
       </c>
       <c r="I91" s="12"/>
     </row>
     <row r="92">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="22" t="s">
         <v>255</v>
       </c>
       <c r="I92" s="12"/>
@@ -4395,34 +4423,34 @@
       <c r="A93" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="22" t="s">
         <v>255</v>
       </c>
       <c r="I93" s="12"/>
     </row>
     <row r="94">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="22" t="s">
         <v>255</v>
       </c>
       <c r="I94" s="12"/>
     </row>
     <row r="95">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="22" t="s">
         <v>255</v>
       </c>
       <c r="I95" s="12"/>
@@ -4431,34 +4459,34 @@
       <c r="A96" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="22" t="s">
         <v>255</v>
       </c>
       <c r="I96" s="12"/>
     </row>
     <row r="97">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="22" t="s">
         <v>255</v>
       </c>
       <c r="I97" s="12"/>
     </row>
     <row r="98">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="22" t="s">
         <v>255</v>
       </c>
       <c r="I98" s="12"/>
@@ -4467,22 +4495,22 @@
       <c r="A99" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="22" t="s">
         <v>255</v>
       </c>
       <c r="I99" s="12"/>
     </row>
     <row r="100">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="B100" s="28" t="s">
+      <c r="B100" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="31" t="s">
         <v>282</v>
       </c>
       <c r="I100" s="2"/>
@@ -4491,10 +4519,10 @@
       <c r="A101" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="C101" s="32" t="s">
         <v>285</v>
       </c>
       <c r="I101" s="2" t="s">
@@ -4502,13 +4530,13 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C102" s="32" t="s">
         <v>289</v>
       </c>
       <c r="I102" s="12"/>
@@ -4517,48 +4545,48 @@
       <c r="A103" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="32" t="s">
         <v>292</v>
       </c>
       <c r="I103" s="2"/>
-      <c r="M103" s="13" t="s">
+      <c r="M103" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="N103" s="13">
+      <c r="N103" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="32" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="C105" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="I105" s="31" t="s">
+      <c r="I105" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="M105" s="13" t="s">
+      <c r="M105" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="N105" s="13" t="s">
+      <c r="N105" s="14" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4566,19 +4594,19 @@
       <c r="A106" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C106" s="30" t="s">
+      <c r="C106" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="I106" s="31" t="s">
+      <c r="I106" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="M106" s="13" t="s">
+      <c r="M106" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="N106" s="13" t="s">
+      <c r="N106" s="14" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4586,62 +4614,62 @@
       <c r="A107" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C107" s="32" t="s">
+      <c r="C107" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="I107" s="31" t="s">
+      <c r="I107" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="M107" s="13" t="s">
+      <c r="M107" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="N107" s="13" t="s">
+      <c r="N107" s="14" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="C108" s="32" t="s">
+      <c r="C108" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="I108" s="31" t="s">
+      <c r="I108" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="M108" s="13" t="s">
+      <c r="M108" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="N108" s="13" t="s">
+      <c r="N108" s="14" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C109" s="32" t="s">
+      <c r="C109" s="34" t="s">
         <v>319</v>
       </c>
       <c r="I109" s="12"/>
     </row>
     <row r="110">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C110" s="30" t="s">
+      <c r="C110" s="32" t="s">
         <v>322</v>
       </c>
       <c r="I110" s="12"/>
@@ -4650,10 +4678,10 @@
       <c r="A111" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C111" s="30" t="s">
+      <c r="C111" s="32" t="s">
         <v>325</v>
       </c>
       <c r="I111" s="12"/>
@@ -4662,25 +4690,25 @@
       <c r="A112" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="C112" s="32" t="s">
         <v>328</v>
       </c>
       <c r="I112" s="12"/>
     </row>
     <row r="113">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="C113" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="E113" s="13" t="b">
+      <c r="E113" s="14" t="b">
         <v>1</v>
       </c>
       <c r="I113" s="2" t="s">
@@ -4688,91 +4716,91 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C114" s="30" t="s">
+      <c r="C114" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="E114" s="13" t="b">
+      <c r="E114" s="14" t="b">
         <v>1</v>
       </c>
       <c r="I114" s="8"/>
-      <c r="M114" s="13" t="s">
+      <c r="M114" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C115" s="30" t="s">
+      <c r="C115" s="32" t="s">
         <v>338</v>
       </c>
       <c r="I115" s="8"/>
     </row>
     <row r="116">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="C116" s="32" t="s">
         <v>338</v>
       </c>
       <c r="I116" s="8"/>
     </row>
     <row r="117">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="C117" s="32" t="s">
         <v>338</v>
       </c>
       <c r="I117" s="8"/>
     </row>
     <row r="118">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C118" s="30" t="s">
+      <c r="C118" s="32" t="s">
         <v>338</v>
       </c>
       <c r="I118" s="8"/>
     </row>
     <row r="119">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="15" t="s">
         <v>345</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="I119" s="23"/>
+      <c r="I119" s="24"/>
     </row>
     <row r="120">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="C120" s="32" t="s">
         <v>349</v>
       </c>
       <c r="I120" s="8"/>
@@ -4781,10 +4809,10 @@
       <c r="A121" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="C121" s="30" t="s">
+      <c r="C121" s="32" t="s">
         <v>352</v>
       </c>
       <c r="I121" s="8"/>
@@ -4793,22 +4821,22 @@
       <c r="A122" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C122" s="30" t="s">
+      <c r="C122" s="32" t="s">
         <v>355</v>
       </c>
       <c r="I122" s="8"/>
     </row>
     <row r="123">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="B123" s="13" t="s">
+      <c r="B123" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="C123" s="30" t="s">
+      <c r="C123" s="32" t="s">
         <v>358</v>
       </c>
       <c r="I123" s="12"/>
@@ -4817,34 +4845,34 @@
       <c r="A124" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="C124" s="30" t="s">
+      <c r="C124" s="32" t="s">
         <v>361</v>
       </c>
       <c r="I124" s="8"/>
     </row>
     <row r="125">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="C125" s="30" t="s">
+      <c r="C125" s="32" t="s">
         <v>364</v>
       </c>
       <c r="I125" s="12"/>
     </row>
     <row r="126">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="B126" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="C126" s="30" t="s">
+      <c r="C126" s="32" t="s">
         <v>367</v>
       </c>
       <c r="I126" s="12"/>
@@ -4853,10 +4881,10 @@
       <c r="A127" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="C127" s="30" t="s">
+      <c r="C127" s="32" t="s">
         <v>370</v>
       </c>
       <c r="I127" s="12"/>
@@ -4865,25 +4893,25 @@
       <c r="A128" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C128" s="30" t="s">
+      <c r="C128" s="32" t="s">
         <v>349</v>
       </c>
       <c r="I128" s="12"/>
     </row>
     <row r="129">
-      <c r="A129" s="33" t="s">
+      <c r="A129" s="35" t="s">
         <v>372</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="E129" s="13" t="b">
+      <c r="E129" s="14" t="b">
         <v>1</v>
       </c>
       <c r="I129" s="2" t="s">
@@ -4891,390 +4919,390 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="34" t="s">
+      <c r="A130" s="36" t="s">
         <v>376</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="E130" s="13" t="b">
+      <c r="E130" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F130" s="13" t="s">
+      <c r="F130" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I130" s="12"/>
     </row>
     <row r="131">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F131" s="13" t="s">
+      <c r="F131" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I131" s="12"/>
-      <c r="J131" s="13" t="s">
+      <c r="J131" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C132" s="35" t="s">
+      <c r="C132" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F132" s="13" t="s">
+      <c r="F132" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I132" s="12"/>
-      <c r="J132" s="13" t="s">
+      <c r="J132" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="C133" s="35" t="s">
+      <c r="C133" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F133" s="13" t="s">
+      <c r="F133" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I133" s="12"/>
-      <c r="J133" s="13" t="s">
+      <c r="J133" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="C134" s="35" t="s">
+      <c r="C134" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F134" s="13" t="s">
+      <c r="F134" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I134" s="12"/>
-      <c r="J134" s="13" t="s">
+      <c r="J134" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="C135" s="35" t="s">
+      <c r="C135" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F135" s="13" t="s">
+      <c r="F135" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I135" s="12"/>
-      <c r="J135" s="13" t="s">
+      <c r="J135" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="C136" s="35" t="s">
+      <c r="C136" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F136" s="13" t="s">
+      <c r="F136" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I136" s="12"/>
-      <c r="J136" s="13" t="s">
+      <c r="J136" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="C137" s="35" t="s">
+      <c r="C137" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F137" s="13" t="s">
+      <c r="F137" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I137" s="12"/>
-      <c r="J137" s="13" t="s">
+      <c r="J137" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="C138" s="35" t="s">
+      <c r="C138" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F138" s="13" t="s">
+      <c r="F138" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I138" s="12"/>
-      <c r="J138" s="13" t="s">
+      <c r="J138" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="C139" s="35" t="s">
+      <c r="C139" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F139" s="13" t="s">
+      <c r="F139" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I139" s="12"/>
-      <c r="J139" s="13" t="s">
+      <c r="J139" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="C140" s="35" t="s">
+      <c r="C140" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F140" s="13" t="s">
+      <c r="F140" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I140" s="12"/>
-      <c r="J140" s="13" t="s">
+      <c r="J140" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B141" s="13" t="s">
+      <c r="A141" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B141" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="C141" s="35" t="s">
+      <c r="C141" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F141" s="13" t="s">
+      <c r="F141" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I141" s="12"/>
-      <c r="J141" s="13" t="s">
+      <c r="J141" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B142" s="13" t="s">
+      <c r="A142" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B142" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="C142" s="35" t="s">
+      <c r="C142" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F142" s="13" t="s">
+      <c r="F142" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I142" s="12"/>
-      <c r="J142" s="13" t="s">
+      <c r="J142" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B143" s="13" t="s">
+      <c r="A143" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B143" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="C143" s="35" t="s">
+      <c r="C143" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F143" s="13" t="s">
+      <c r="F143" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I143" s="12"/>
-      <c r="J143" s="13" t="s">
+      <c r="J143" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B144" s="13" t="s">
+      <c r="A144" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B144" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="C144" s="35" t="s">
+      <c r="C144" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F144" s="13" t="s">
+      <c r="F144" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I144" s="12"/>
-      <c r="J144" s="13" t="s">
+      <c r="J144" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="B145" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="C145" s="35" t="s">
+      <c r="C145" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F145" s="13" t="s">
+      <c r="F145" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I145" s="12"/>
-      <c r="J145" s="13" t="s">
+      <c r="J145" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="C146" s="35" t="s">
+      <c r="C146" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F146" s="13" t="s">
+      <c r="F146" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I146" s="12"/>
-      <c r="J146" s="13" t="s">
+      <c r="J146" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="C147" s="35" t="s">
+      <c r="C147" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F147" s="13" t="s">
+      <c r="F147" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I147" s="12"/>
-      <c r="J147" s="13" t="s">
+      <c r="J147" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="B148" s="13" t="s">
+      <c r="B148" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="C148" s="35" t="s">
+      <c r="C148" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F148" s="13" t="s">
+      <c r="F148" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I148" s="12"/>
-      <c r="J148" s="13" t="s">
+      <c r="J148" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="B149" s="13" t="s">
+      <c r="B149" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="C149" s="35" t="s">
+      <c r="C149" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F149" s="13" t="s">
+      <c r="F149" s="14" t="s">
         <v>378</v>
       </c>
       <c r="I149" s="12"/>
-      <c r="J149" s="13" t="s">
+      <c r="J149" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="36">
+      <c r="A150" s="38">
         <v>229.0</v>
       </c>
-      <c r="B150" s="37" t="s">
+      <c r="B150" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="C150" s="38" t="s">
+      <c r="C150" s="40" t="s">
         <v>374</v>
       </c>
       <c r="D150" s="12"/>
-      <c r="E150" s="39" t="b">
+      <c r="E150" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="F150" s="37"/>
+      <c r="F150" s="39"/>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
-      <c r="I150" s="40" t="s">
+      <c r="I150" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="J150" s="37"/>
-      <c r="K150" s="40"/>
+      <c r="J150" s="39"/>
+      <c r="K150" s="42"/>
       <c r="L150" s="12"/>
       <c r="M150" s="12"/>
-      <c r="N150" s="41"/>
+      <c r="N150" s="43"/>
       <c r="O150" s="12"/>
       <c r="P150" s="12"/>
       <c r="Q150" s="12"/>
@@ -5305,39 +5333,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="48" t="s">
         <v>407</v>
       </c>
       <c r="D2" s="12"/>
@@ -5355,13 +5383,13 @@
       <c r="P2" s="12"/>
     </row>
     <row r="3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>408</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="48" t="s">
         <v>410</v>
       </c>
       <c r="D3" s="12"/>
@@ -5379,109 +5407,109 @@
       <c r="P3" s="12"/>
     </row>
     <row r="4">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>411</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>413</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>414</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="48" t="s">
         <v>416</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>417</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="48" t="s">
         <v>419</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
     </row>
     <row r="7">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>420</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="48" t="s">
         <v>422</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
     </row>
     <row r="8">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>423</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="48" t="s">
         <v>425</v>
       </c>
       <c r="D8" s="12"/>
@@ -5499,13 +5527,13 @@
       <c r="P8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="48" t="s">
         <v>428</v>
       </c>
       <c r="D9" s="12"/>
@@ -5523,13 +5551,13 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="48" t="s">
         <v>431</v>
       </c>
       <c r="D10" s="12"/>
@@ -5547,13 +5575,13 @@
       <c r="P10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="48" t="s">
         <v>434</v>
       </c>
       <c r="D11" s="12"/>
@@ -5571,13 +5599,13 @@
       <c r="P11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="48" t="s">
         <v>437</v>
       </c>
       <c r="D12" s="12"/>
@@ -5595,13 +5623,13 @@
       <c r="P12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47" t="s">
         <v>438</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="48" t="s">
         <v>440</v>
       </c>
       <c r="D13" s="12"/>
@@ -5619,13 +5647,13 @@
       <c r="P13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="48" t="s">
         <v>443</v>
       </c>
       <c r="D14" s="12"/>
@@ -5643,13 +5671,13 @@
       <c r="P14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="47" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="48" t="s">
         <v>446</v>
       </c>
       <c r="D15" s="12"/>
@@ -5667,13 +5695,13 @@
       <c r="P15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="48" t="s">
         <v>449</v>
       </c>
       <c r="D16" s="12"/>
@@ -5691,13 +5719,13 @@
       <c r="P16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>450</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="48" t="s">
         <v>419</v>
       </c>
       <c r="D17" s="12"/>
@@ -5715,13 +5743,13 @@
       <c r="P17" s="12"/>
     </row>
     <row r="18">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="48" t="s">
         <v>454</v>
       </c>
       <c r="D18" s="12"/>
@@ -5739,37 +5767,37 @@
       <c r="P18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="50" t="s">
         <v>457</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
     </row>
     <row r="20">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="47" t="s">
         <v>458</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="51" t="s">
         <v>460</v>
       </c>
       <c r="D20" s="12"/>
@@ -5787,13 +5815,13 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>461</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="51" t="s">
         <v>463</v>
       </c>
       <c r="D21" s="12"/>
@@ -5811,61 +5839,61 @@
       <c r="P21" s="12"/>
     </row>
     <row r="22">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>464</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
     </row>
     <row r="23">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="48" t="s">
         <v>469</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
     </row>
     <row r="24">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="48" t="s">
         <v>472</v>
       </c>
       <c r="D24" s="12"/>
@@ -5883,13 +5911,13 @@
       <c r="P24" s="12"/>
     </row>
     <row r="25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="48" t="s">
         <v>475</v>
       </c>
       <c r="D25" s="12"/>
@@ -5907,253 +5935,253 @@
       <c r="P25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="47" t="s">
         <v>476</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
     </row>
     <row r="27">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="48" t="s">
         <v>481</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
     </row>
     <row r="28">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="47" t="s">
         <v>482</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="48" t="s">
         <v>484</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
     </row>
     <row r="29">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="48" t="s">
         <v>487</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
     </row>
     <row r="30">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="47" t="s">
         <v>488</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
     </row>
     <row r="31">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="47" t="s">
         <v>491</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="48" t="s">
         <v>493</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
     </row>
     <row r="32">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="47" t="s">
         <v>494</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="48" t="s">
         <v>496</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
     </row>
     <row r="33">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="48" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
     </row>
     <row r="34">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="47" t="s">
         <v>500</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="48" t="s">
         <v>502</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
     </row>
     <row r="35">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="47" t="s">
         <v>503</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="48" t="s">
         <v>505</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
     </row>
     <row r="36">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="47" t="s">
         <v>506</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="52" t="s">
         <v>508</v>
       </c>
       <c r="D36" s="12"/>
@@ -6171,13 +6199,13 @@
       <c r="P36" s="12"/>
     </row>
     <row r="37">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="47" t="s">
         <v>509</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="52" t="s">
         <v>511</v>
       </c>
       <c r="D37" s="12"/>
@@ -6195,13 +6223,13 @@
       <c r="P37" s="12"/>
     </row>
     <row r="38">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="47" t="s">
         <v>512</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="52" t="s">
         <v>514</v>
       </c>
       <c r="D38" s="12"/>
@@ -6219,13 +6247,13 @@
       <c r="P38" s="12"/>
     </row>
     <row r="39">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="47" t="s">
         <v>515</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="51" t="s">
         <v>516</v>
       </c>
       <c r="D39" s="12"/>
@@ -6243,13 +6271,13 @@
       <c r="P39" s="12"/>
     </row>
     <row r="40">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="47" t="s">
         <v>517</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="51" t="s">
         <v>519</v>
       </c>
       <c r="D40" s="12"/>
@@ -6267,13 +6295,13 @@
       <c r="P40" s="12"/>
     </row>
     <row r="41">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="47" t="s">
         <v>520</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="53" t="s">
         <v>522</v>
       </c>
       <c r="D41" s="12"/>
@@ -6291,166 +6319,166 @@
       <c r="P41" s="12"/>
     </row>
     <row r="42">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="47" t="s">
         <v>523</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="54" t="s">
         <v>525</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
     </row>
     <row r="43">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="47" t="s">
         <v>526</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="56" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="47" t="s">
         <v>529</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="56" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="47" t="s">
         <v>532</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="57" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="47" t="s">
         <v>535</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="54" t="s">
         <v>537</v>
       </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
     </row>
     <row r="47">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="47" t="s">
         <v>538</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="54" t="s">
         <v>540</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="58"/>
     </row>
     <row r="48">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="54" t="s">
         <v>543</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
     </row>
     <row r="49">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="47" t="s">
         <v>544</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="57" t="s">
         <v>546</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
     </row>
     <row r="50">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="47" t="s">
         <v>547</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="57" t="s">
         <v>549</v>
       </c>
     </row>
@@ -6488,7 +6516,7 @@
       <c r="E1" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="59" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -6496,334 +6524,334 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="E12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="E13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="13">
+      <c r="E14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="E15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6857,7 +6885,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6881,13 +6909,13 @@
       <c r="I1" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="61" t="s">
         <v>616</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>618</v>
       </c>
       <c r="M1" s="12" t="s">
@@ -6896,1092 +6924,1092 @@
       <c r="N1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>620</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="14">
         <v>6.0</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>623</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="63" t="s">
         <v>624</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="14" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>629</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="14">
         <v>6.0</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="32" t="s">
         <v>631</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="14" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>634</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="14">
         <v>6.0</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>636</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="14" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="32" t="s">
         <v>639</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="14">
         <v>6.0</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="32" t="s">
         <v>641</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="14" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="32" t="s">
         <v>644</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="14">
         <v>6.0</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>645</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="32" t="s">
         <v>646</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="14" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="32" t="s">
         <v>649</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="14">
         <v>6.0</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>650</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="32" t="s">
         <v>651</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="14" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="32" t="s">
         <v>654</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="14">
         <v>6.0</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="32" t="s">
         <v>656</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="14" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>658</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="32" t="s">
         <v>659</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="14">
         <v>6.0</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>660</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="32" t="s">
         <v>661</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="14" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="32" t="s">
         <v>664</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="14">
         <v>6.0</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="32" t="s">
         <v>666</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="14" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="32" t="s">
         <v>669</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="14">
         <v>6.0</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>670</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="14" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="32" t="s">
         <v>674</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="14">
         <v>6.0</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="32" t="s">
         <v>676</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="14" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="32" t="s">
         <v>679</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="14">
         <v>6.0</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>64</v>
+      <c r="L24" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="32" t="s">
         <v>681</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="14" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="32" t="s">
         <v>684</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="14">
         <v>6.0</v>
       </c>
-      <c r="L26" s="13" t="s">
-        <v>68</v>
+      <c r="L26" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>685</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="32" t="s">
         <v>686</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="14" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="14">
         <v>6.0</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>72</v>
+      <c r="L28" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="32" t="s">
         <v>691</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="L29" s="28" t="s">
+      <c r="L29" s="13" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="32" t="s">
         <v>694</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="K30" s="28" t="s">
+      <c r="K30" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="L30" s="64" t="s">
+      <c r="L30" s="66" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="32" t="s">
         <v>699</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="14">
         <v>0.0</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="32" t="s">
         <v>701</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="14" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="32" t="s">
         <v>706</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="14" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="32" t="s">
         <v>711</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="K34" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="L34" s="14" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="32" t="s">
         <v>715</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="14" t="s">
         <v>716</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="K35" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="L35" s="13" t="s">
+      <c r="L35" s="14" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="14" t="s">
         <v>718</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="32" t="s">
         <v>719</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="K36" s="13" t="s">
+      <c r="K36" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="14" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>722</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="32" t="s">
         <v>723</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="14">
         <v>0.0</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="14" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="32" t="s">
         <v>725</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="K38" s="28" t="s">
+      <c r="K38" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="14" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>728</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="32" t="s">
         <v>729</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="14">
         <v>0.0</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="L39" s="14" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>730</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="32" t="s">
         <v>731</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E40" s="63" t="s">
+      <c r="E40" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="K40" s="28" t="s">
+      <c r="K40" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="L40" s="14" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="14">
         <v>0.0</v>
       </c>
-      <c r="L41" s="13" t="s">
+      <c r="L41" s="14" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="32" t="s">
         <v>737</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E42" s="63" t="s">
+      <c r="E42" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="K42" s="28" t="s">
+      <c r="K42" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="L42" s="13" t="s">
+      <c r="L42" s="14" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="32" t="s">
         <v>741</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="14">
         <v>0.0</v>
       </c>
-      <c r="L43" s="13" t="s">
+      <c r="L43" s="14" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="32" t="s">
         <v>743</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="K44" s="28" t="s">
+      <c r="K44" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="L44" s="13" t="s">
+      <c r="L44" s="14" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="32" t="s">
         <v>747</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="D45" s="65" t="s">
+      <c r="D45" s="67" t="s">
         <v>749</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8120,25 +8148,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="62" t="s">
         <v>611</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>756</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>757</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="68" t="s">
         <v>553</v>
       </c>
       <c r="H1" s="12"/>
@@ -8162,104 +8190,104 @@
       <c r="Z1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="67" t="s">
         <v>761</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="13" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>763</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>763</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="67" t="s">
         <v>764</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="67" t="s">
         <v>767</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="67" t="s">
         <v>769</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="67" t="s">
         <v>771</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="67" t="s">
         <v>773</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8279,7 +8307,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -8333,10 +8361,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>776</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="70" t="s">
         <v>777</v>
       </c>
       <c r="C1" s="12"/>
@@ -8365,10 +8393,10 @@
       <c r="Z1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="71" t="s">
         <v>779</v>
       </c>
       <c r="C2" s="12"/>
@@ -8397,10 +8425,10 @@
       <c r="Z2" s="12"/>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="72" t="s">
         <v>781</v>
       </c>
       <c r="C3" s="12"/>
@@ -8429,10 +8457,10 @@
       <c r="Z3" s="12"/>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="72" t="s">
         <v>783</v>
       </c>
       <c r="C4" s="12"/>
@@ -8461,10 +8489,10 @@
       <c r="Z4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="72" t="s">
         <v>785</v>
       </c>
       <c r="C5" s="12"/>
@@ -8493,10 +8521,10 @@
       <c r="Z5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="72" t="s">
         <v>787</v>
       </c>
       <c r="C6" s="12"/>
@@ -8525,10 +8553,10 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>788</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="72" t="s">
         <v>789</v>
       </c>
       <c r="C7" s="12"/>
@@ -8557,10 +8585,10 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="72" t="s">
         <v>791</v>
       </c>
       <c r="C8" s="12"/>
@@ -8589,10 +8617,10 @@
       <c r="Z8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>792</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="72" t="s">
         <v>793</v>
       </c>
       <c r="C9" s="12"/>
@@ -8621,10 +8649,10 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="72" t="s">
         <v>795</v>
       </c>
       <c r="C10" s="12"/>
@@ -8653,10 +8681,10 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="72" t="s">
         <v>797</v>
       </c>
       <c r="C11" s="12"/>
@@ -8688,7 +8716,7 @@
       <c r="A12" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="73" t="s">
         <v>799</v>
       </c>
       <c r="C12" s="12"/>

--- a/bronchomotor/source/bronchomotor.xlsx
+++ b/bronchomotor/source/bronchomotor.xlsx
@@ -2470,7 +2470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2552,6 +2552,11 @@
       <sz val="9.0"/>
       <color rgb="FF660E7A"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="&quot;Droid Sans Mono&quot;"/>
     </font>
     <font>
       <u/>
@@ -2819,19 +2824,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>

--- a/bronchomotor/source/bronchomotor.xlsx
+++ b/bronchomotor/source/bronchomotor.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="805">
   <si>
     <t>id</t>
   </si>
@@ -2392,6 +2392,21 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>PMID:2384334</t>
+  </si>
+  <si>
+    <t>PMID:8300416</t>
+  </si>
+  <si>
+    <t>PMID:3198482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID:18579364 </t>
+  </si>
+  <si>
+    <t>DOI:10.1016/j.mpaic.2008.08.005</t>
   </si>
   <si>
     <t>prefix</t>
@@ -2470,7 +2485,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2495,7 +2510,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -2504,9 +2518,6 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF222222"/>
@@ -2557,6 +2568,23 @@
       <b/>
       <color theme="1"/>
       <name val="&quot;Droid Sans Mono&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -2618,7 +2646,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2658,9 +2686,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2676,13 +2701,10 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2691,7 +2713,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2700,26 +2722,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -2730,7 +2740,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2751,13 +2761,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2772,41 +2782,41 @@
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2815,7 +2825,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2824,19 +2834,24 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3209,15 +3224,15 @@
       <c r="J2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="13">
         <v>6.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -3230,15 +3245,15 @@
       <c r="J3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -3251,10 +3266,10 @@
       <c r="J4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="13">
         <v>6.0</v>
       </c>
     </row>
@@ -3272,15 +3287,15 @@
       <c r="J5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="13">
         <v>6.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -3293,15 +3308,15 @@
       <c r="J6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="13">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -3314,10 +3329,10 @@
       <c r="J7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="13">
         <v>6.0</v>
       </c>
     </row>
@@ -3335,15 +3350,15 @@
       <c r="J8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="13">
         <v>6.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -3356,15 +3371,15 @@
       <c r="J9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="13">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -3377,10 +3392,10 @@
       <c r="J10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="13">
         <v>6.0</v>
       </c>
     </row>
@@ -3398,15 +3413,15 @@
       <c r="J11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="13">
         <v>6.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -3416,18 +3431,18 @@
         <v>62</v>
       </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="13">
         <v>6.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -3437,13 +3452,13 @@
         <v>67</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="13">
         <v>6.0</v>
       </c>
     </row>
@@ -3454,22 +3469,22 @@
       <c r="B14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="13">
         <v>6.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -3479,30 +3494,30 @@
         <v>75</v>
       </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="13">
         <v>6.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="14" t="b">
+      <c r="E16" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3516,37 +3531,37 @@
       <c r="C17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="15" t="s">
+      <c r="L17" s="14"/>
+      <c r="M17" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>86</v>
       </c>
       <c r="I18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>89</v>
       </c>
       <c r="I19" s="12"/>
@@ -3555,34 +3570,34 @@
       <c r="A20" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>92</v>
       </c>
       <c r="I20" s="12"/>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="I21" s="24"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="20" t="s">
         <v>98</v>
       </c>
       <c r="I22" s="12"/>
@@ -3591,34 +3606,34 @@
       <c r="A23" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="20" t="s">
         <v>101</v>
       </c>
       <c r="I23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>104</v>
       </c>
       <c r="I24" s="12"/>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="20" t="s">
         <v>107</v>
       </c>
       <c r="I25" s="12"/>
@@ -3627,22 +3642,22 @@
       <c r="A26" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="24"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>113</v>
       </c>
       <c r="I27" s="12"/>
@@ -3651,70 +3666,70 @@
       <c r="A28" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I28" s="24"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="24"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="21" t="s">
         <v>121</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="24"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="24"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I32" s="24"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="26" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3725,34 +3740,34 @@
       <c r="B34" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="24"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>134</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="24"/>
+      <c r="I35" s="22"/>
     </row>
     <row r="36">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="24"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
@@ -3761,34 +3776,34 @@
       <c r="B37" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I37" s="24"/>
+      <c r="I37" s="22"/>
     </row>
     <row r="38">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>139</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I38" s="24"/>
+      <c r="I38" s="22"/>
     </row>
     <row r="39">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>141</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="24"/>
+      <c r="I39" s="22"/>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
@@ -3797,34 +3812,34 @@
       <c r="B40" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I40" s="24"/>
+      <c r="I40" s="22"/>
     </row>
     <row r="41">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I41" s="24"/>
+      <c r="I41" s="22"/>
     </row>
     <row r="42">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>147</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I42" s="24"/>
+      <c r="I42" s="22"/>
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
@@ -3833,74 +3848,74 @@
       <c r="B43" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I43" s="24"/>
+      <c r="I43" s="22"/>
     </row>
     <row r="44">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>151</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I44" s="24"/>
+      <c r="I44" s="22"/>
     </row>
     <row r="45">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>153</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I45" s="24"/>
+      <c r="I45" s="22"/>
     </row>
     <row r="46">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="21" t="s">
         <v>156</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="I46" s="24"/>
+      <c r="I46" s="22"/>
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="21" t="s">
         <v>158</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I47" s="24"/>
+      <c r="I47" s="22"/>
     </row>
     <row r="48">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="21" t="s">
         <v>161</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I48" s="24"/>
+      <c r="I48" s="22"/>
     </row>
     <row r="49">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="21" t="s">
         <v>163</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -3912,7 +3927,7 @@
       <c r="A50" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="21" t="s">
         <v>165</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -3921,10 +3936,10 @@
       <c r="I50" s="12"/>
     </row>
     <row r="51">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="21" t="s">
         <v>167</v>
       </c>
       <c r="C51" s="11" t="s">
@@ -3933,10 +3948,10 @@
       <c r="I51" s="12"/>
     </row>
     <row r="52">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="21" t="s">
         <v>169</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -3948,7 +3963,7 @@
       <c r="A53" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="21" t="s">
         <v>171</v>
       </c>
       <c r="C53" s="11" t="s">
@@ -3957,10 +3972,10 @@
       <c r="I53" s="12"/>
     </row>
     <row r="54">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="21" t="s">
         <v>173</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -3972,7 +3987,7 @@
       <c r="A55" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="21" t="s">
         <v>175</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -3981,10 +3996,10 @@
       <c r="I55" s="12"/>
     </row>
     <row r="56">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="21" t="s">
         <v>177</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -3993,10 +4008,10 @@
       <c r="I56" s="12"/>
     </row>
     <row r="57">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="21" t="s">
         <v>179</v>
       </c>
       <c r="C57" s="11" t="s">
@@ -4008,7 +4023,7 @@
       <c r="A58" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>181</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -4017,10 +4032,10 @@
       <c r="I58" s="12"/>
     </row>
     <row r="59">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>183</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -4029,13 +4044,13 @@
       <c r="I59" s="12"/>
     </row>
     <row r="60">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>184</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="20" t="s">
         <v>186</v>
       </c>
       <c r="I60" s="12"/>
@@ -4047,31 +4062,31 @@
       <c r="B61" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="20" t="s">
         <v>189</v>
       </c>
       <c r="I61" s="12"/>
     </row>
     <row r="62">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>190</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="20" t="s">
         <v>192</v>
       </c>
       <c r="I62" s="12"/>
     </row>
     <row r="63">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>193</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="20" t="s">
         <v>195</v>
       </c>
       <c r="I63" s="12"/>
@@ -4083,31 +4098,31 @@
       <c r="B64" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="20" t="s">
         <v>198</v>
       </c>
       <c r="I64" s="12"/>
     </row>
     <row r="65">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>199</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="20" t="s">
         <v>201</v>
       </c>
       <c r="I65" s="12"/>
     </row>
     <row r="66">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>202</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="20" t="s">
         <v>204</v>
       </c>
       <c r="I66" s="12"/>
@@ -4119,31 +4134,31 @@
       <c r="B67" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="20" t="s">
         <v>207</v>
       </c>
       <c r="I67" s="12"/>
     </row>
     <row r="68">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>208</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="20" t="s">
         <v>210</v>
       </c>
       <c r="I68" s="12"/>
     </row>
     <row r="69">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>211</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="20" t="s">
         <v>213</v>
       </c>
       <c r="I69" s="12"/>
@@ -4155,13 +4170,13 @@
       <c r="B70" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="20" t="s">
         <v>216</v>
       </c>
       <c r="I70" s="12"/>
     </row>
     <row r="71">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>217</v>
       </c>
       <c r="B71" s="12" t="s">
@@ -4173,7 +4188,7 @@
       <c r="I71" s="12"/>
     </row>
     <row r="72">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>220</v>
       </c>
       <c r="B72" s="12" t="s">
@@ -4188,34 +4203,34 @@
       <c r="A73" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="20" t="s">
         <v>225</v>
       </c>
       <c r="I73" s="12"/>
     </row>
     <row r="74">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="20" t="s">
         <v>225</v>
       </c>
       <c r="I74" s="12"/>
     </row>
     <row r="75">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="20" t="s">
         <v>225</v>
       </c>
       <c r="I75" s="12"/>
@@ -4224,34 +4239,34 @@
       <c r="A76" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="20" t="s">
         <v>225</v>
       </c>
       <c r="I76" s="12"/>
     </row>
     <row r="77">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="20" t="s">
         <v>225</v>
       </c>
       <c r="I77" s="12"/>
     </row>
     <row r="78">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="20" t="s">
         <v>225</v>
       </c>
       <c r="I78" s="12"/>
@@ -4260,22 +4275,22 @@
       <c r="A79" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="20" t="s">
         <v>225</v>
       </c>
       <c r="I79" s="12"/>
     </row>
     <row r="80">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="20" t="s">
         <v>225</v>
       </c>
       <c r="I80" s="12"/>
@@ -4284,34 +4299,34 @@
       <c r="A81" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="20" t="s">
         <v>225</v>
       </c>
       <c r="I81" s="12"/>
     </row>
     <row r="82">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="20" t="s">
         <v>225</v>
       </c>
       <c r="I82" s="12"/>
     </row>
     <row r="83">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="20" t="s">
         <v>225</v>
       </c>
       <c r="I83" s="12"/>
@@ -4320,19 +4335,19 @@
       <c r="A84" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="20" t="s">
         <v>225</v>
       </c>
       <c r="I84" s="12"/>
     </row>
     <row r="85">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="21" t="s">
         <v>249</v>
       </c>
       <c r="C85" s="11" t="s">
@@ -4341,13 +4356,13 @@
       <c r="I85" s="12"/>
     </row>
     <row r="86">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="20" t="s">
         <v>252</v>
       </c>
       <c r="I86" s="12"/>
@@ -4356,34 +4371,34 @@
       <c r="A87" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I87" s="12"/>
     </row>
     <row r="88">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I88" s="12"/>
     </row>
     <row r="89">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I89" s="12"/>
@@ -4392,34 +4407,34 @@
       <c r="A90" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I90" s="12"/>
     </row>
     <row r="91">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I91" s="12"/>
     </row>
     <row r="92">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I92" s="12"/>
@@ -4428,34 +4443,34 @@
       <c r="A93" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I93" s="12"/>
     </row>
     <row r="94">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I94" s="12"/>
     </row>
     <row r="95">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I95" s="12"/>
@@ -4464,34 +4479,34 @@
       <c r="A96" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B96" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I96" s="12"/>
     </row>
     <row r="97">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I97" s="12"/>
     </row>
     <row r="98">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I98" s="12"/>
@@ -4500,22 +4515,22 @@
       <c r="A99" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I99" s="12"/>
     </row>
     <row r="100">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="9" t="s">
         <v>280</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C100" s="31" t="s">
+      <c r="C100" s="27" t="s">
         <v>282</v>
       </c>
       <c r="I100" s="2"/>
@@ -4524,10 +4539,10 @@
       <c r="A101" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="C101" s="32" t="s">
+      <c r="C101" s="27" t="s">
         <v>285</v>
       </c>
       <c r="I101" s="2" t="s">
@@ -4535,13 +4550,13 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C102" s="32" t="s">
+      <c r="C102" s="27" t="s">
         <v>289</v>
       </c>
       <c r="I102" s="12"/>
@@ -4550,48 +4565,48 @@
       <c r="A103" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C103" s="32" t="s">
+      <c r="C103" s="27" t="s">
         <v>292</v>
       </c>
       <c r="I103" s="2"/>
-      <c r="M103" s="14" t="s">
+      <c r="M103" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="N103" s="14">
+      <c r="N103" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C104" s="32" t="s">
+      <c r="C104" s="27" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C105" s="32" t="s">
+      <c r="C105" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="I105" s="33" t="s">
+      <c r="I105" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="M105" s="14" t="s">
+      <c r="M105" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="N105" s="14" t="s">
+      <c r="N105" s="13" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4599,19 +4614,19 @@
       <c r="A106" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C106" s="32" t="s">
+      <c r="C106" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="I106" s="33" t="s">
+      <c r="I106" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="M106" s="14" t="s">
+      <c r="M106" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="N106" s="14" t="s">
+      <c r="N106" s="13" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4619,62 +4634,62 @@
       <c r="A107" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C107" s="34" t="s">
+      <c r="C107" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="I107" s="33" t="s">
+      <c r="I107" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="M107" s="14" t="s">
+      <c r="M107" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="N107" s="14" t="s">
+      <c r="N107" s="13" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C108" s="34" t="s">
+      <c r="C108" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="I108" s="33" t="s">
+      <c r="I108" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="M108" s="14" t="s">
+      <c r="M108" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="N108" s="14" t="s">
+      <c r="N108" s="13" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C109" s="34" t="s">
+      <c r="C109" s="28" t="s">
         <v>319</v>
       </c>
       <c r="I109" s="12"/>
     </row>
     <row r="110">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C110" s="32" t="s">
+      <c r="C110" s="27" t="s">
         <v>322</v>
       </c>
       <c r="I110" s="12"/>
@@ -4683,10 +4698,10 @@
       <c r="A111" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C111" s="32" t="s">
+      <c r="C111" s="27" t="s">
         <v>325</v>
       </c>
       <c r="I111" s="12"/>
@@ -4695,25 +4710,25 @@
       <c r="A112" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="C112" s="32" t="s">
+      <c r="C112" s="27" t="s">
         <v>328</v>
       </c>
       <c r="I112" s="12"/>
     </row>
     <row r="113">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="C113" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="E113" s="14" t="b">
+      <c r="E113" s="13" t="b">
         <v>1</v>
       </c>
       <c r="I113" s="2" t="s">
@@ -4721,91 +4736,91 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="C114" s="32" t="s">
+      <c r="C114" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="E114" s="14" t="b">
+      <c r="E114" s="13" t="b">
         <v>1</v>
       </c>
       <c r="I114" s="8"/>
-      <c r="M114" s="14" t="s">
+      <c r="M114" s="13" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="C115" s="32" t="s">
+      <c r="C115" s="27" t="s">
         <v>338</v>
       </c>
       <c r="I115" s="8"/>
     </row>
     <row r="116">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C116" s="32" t="s">
+      <c r="C116" s="27" t="s">
         <v>338</v>
       </c>
       <c r="I116" s="8"/>
     </row>
     <row r="117">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="C117" s="32" t="s">
+      <c r="C117" s="27" t="s">
         <v>338</v>
       </c>
       <c r="I117" s="8"/>
     </row>
     <row r="118">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C118" s="32" t="s">
+      <c r="C118" s="27" t="s">
         <v>338</v>
       </c>
       <c r="I118" s="8"/>
     </row>
     <row r="119">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="14" t="s">
         <v>345</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C119" s="26" t="s">
+      <c r="C119" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="I119" s="24"/>
+      <c r="I119" s="22"/>
     </row>
     <row r="120">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C120" s="32" t="s">
+      <c r="C120" s="27" t="s">
         <v>349</v>
       </c>
       <c r="I120" s="8"/>
@@ -4814,10 +4829,10 @@
       <c r="A121" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C121" s="32" t="s">
+      <c r="C121" s="27" t="s">
         <v>352</v>
       </c>
       <c r="I121" s="8"/>
@@ -4826,22 +4841,22 @@
       <c r="A122" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="C122" s="32" t="s">
+      <c r="C122" s="27" t="s">
         <v>355</v>
       </c>
       <c r="I122" s="8"/>
     </row>
     <row r="123">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C123" s="32" t="s">
+      <c r="C123" s="27" t="s">
         <v>358</v>
       </c>
       <c r="I123" s="12"/>
@@ -4850,34 +4865,34 @@
       <c r="A124" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C124" s="32" t="s">
+      <c r="C124" s="27" t="s">
         <v>361</v>
       </c>
       <c r="I124" s="8"/>
     </row>
     <row r="125">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="C125" s="32" t="s">
+      <c r="C125" s="27" t="s">
         <v>364</v>
       </c>
       <c r="I125" s="12"/>
     </row>
     <row r="126">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C126" s="32" t="s">
+      <c r="C126" s="27" t="s">
         <v>367</v>
       </c>
       <c r="I126" s="12"/>
@@ -4886,10 +4901,10 @@
       <c r="A127" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C127" s="32" t="s">
+      <c r="C127" s="27" t="s">
         <v>370</v>
       </c>
       <c r="I127" s="12"/>
@@ -4898,25 +4913,25 @@
       <c r="A128" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C128" s="32" t="s">
+      <c r="C128" s="27" t="s">
         <v>349</v>
       </c>
       <c r="I128" s="12"/>
     </row>
     <row r="129">
-      <c r="A129" s="35" t="s">
+      <c r="A129" s="29" t="s">
         <v>372</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="E129" s="14" t="b">
+      <c r="E129" s="13" t="b">
         <v>1</v>
       </c>
       <c r="I129" s="2" t="s">
@@ -4924,390 +4939,390 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="36" t="s">
+      <c r="A130" s="30" t="s">
         <v>376</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="E130" s="14" t="b">
+      <c r="E130" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="F130" s="14" t="s">
+      <c r="F130" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I130" s="12"/>
     </row>
     <row r="131">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C131" s="37" t="s">
+      <c r="C131" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F131" s="14" t="s">
+      <c r="F131" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I131" s="12"/>
-      <c r="J131" s="14" t="s">
+      <c r="J131" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="C132" s="37" t="s">
+      <c r="C132" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F132" s="14" t="s">
+      <c r="F132" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I132" s="12"/>
-      <c r="J132" s="14" t="s">
+      <c r="J132" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="C133" s="37" t="s">
+      <c r="C133" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F133" s="14" t="s">
+      <c r="F133" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I133" s="12"/>
-      <c r="J133" s="14" t="s">
+      <c r="J133" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C134" s="37" t="s">
+      <c r="C134" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F134" s="14" t="s">
+      <c r="F134" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I134" s="12"/>
-      <c r="J134" s="14" t="s">
+      <c r="J134" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="C135" s="37" t="s">
+      <c r="C135" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F135" s="14" t="s">
+      <c r="F135" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I135" s="12"/>
-      <c r="J135" s="14" t="s">
+      <c r="J135" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C136" s="37" t="s">
+      <c r="C136" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F136" s="14" t="s">
+      <c r="F136" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I136" s="12"/>
-      <c r="J136" s="14" t="s">
+      <c r="J136" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="C137" s="37" t="s">
+      <c r="C137" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F137" s="14" t="s">
+      <c r="F137" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I137" s="12"/>
-      <c r="J137" s="14" t="s">
+      <c r="J137" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="C138" s="37" t="s">
+      <c r="C138" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F138" s="14" t="s">
+      <c r="F138" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I138" s="12"/>
-      <c r="J138" s="14" t="s">
+      <c r="J138" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="C139" s="37" t="s">
+      <c r="C139" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F139" s="14" t="s">
+      <c r="F139" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I139" s="12"/>
-      <c r="J139" s="14" t="s">
+      <c r="J139" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C140" s="37" t="s">
+      <c r="C140" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F140" s="14" t="s">
+      <c r="F140" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I140" s="12"/>
-      <c r="J140" s="14" t="s">
+      <c r="J140" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="C141" s="37" t="s">
+      <c r="C141" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F141" s="14" t="s">
+      <c r="F141" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I141" s="12"/>
-      <c r="J141" s="14" t="s">
+      <c r="J141" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C142" s="37" t="s">
+      <c r="C142" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F142" s="14" t="s">
+      <c r="F142" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I142" s="12"/>
-      <c r="J142" s="14" t="s">
+      <c r="J142" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="C143" s="37" t="s">
+      <c r="C143" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F143" s="14" t="s">
+      <c r="F143" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I143" s="12"/>
-      <c r="J143" s="14" t="s">
+      <c r="J143" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="C144" s="37" t="s">
+      <c r="C144" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F144" s="14" t="s">
+      <c r="F144" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I144" s="12"/>
-      <c r="J144" s="14" t="s">
+      <c r="J144" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="C145" s="37" t="s">
+      <c r="C145" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F145" s="14" t="s">
+      <c r="F145" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I145" s="12"/>
-      <c r="J145" s="14" t="s">
+      <c r="J145" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="C146" s="37" t="s">
+      <c r="C146" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F146" s="14" t="s">
+      <c r="F146" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I146" s="12"/>
-      <c r="J146" s="14" t="s">
+      <c r="J146" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="C147" s="37" t="s">
+      <c r="C147" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F147" s="14" t="s">
+      <c r="F147" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I147" s="12"/>
-      <c r="J147" s="14" t="s">
+      <c r="J147" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="C148" s="37" t="s">
+      <c r="C148" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F148" s="14" t="s">
+      <c r="F148" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I148" s="12"/>
-      <c r="J148" s="14" t="s">
+      <c r="J148" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="C149" s="37" t="s">
+      <c r="C149" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="F149" s="14" t="s">
+      <c r="F149" s="13" t="s">
         <v>378</v>
       </c>
       <c r="I149" s="12"/>
-      <c r="J149" s="14" t="s">
+      <c r="J149" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="38">
+      <c r="A150" s="32">
         <v>229.0</v>
       </c>
-      <c r="B150" s="39" t="s">
+      <c r="B150" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="C150" s="40" t="s">
+      <c r="C150" s="34" t="s">
         <v>374</v>
       </c>
       <c r="D150" s="12"/>
-      <c r="E150" s="41" t="b">
+      <c r="E150" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="F150" s="39"/>
+      <c r="F150" s="33"/>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
-      <c r="I150" s="42" t="s">
+      <c r="I150" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="J150" s="39"/>
-      <c r="K150" s="42"/>
+      <c r="J150" s="33"/>
+      <c r="K150" s="36"/>
       <c r="L150" s="12"/>
       <c r="M150" s="12"/>
-      <c r="N150" s="43"/>
+      <c r="N150" s="37"/>
       <c r="O150" s="12"/>
       <c r="P150" s="12"/>
       <c r="Q150" s="12"/>
@@ -5338,1152 +5353,600 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
     </row>
     <row r="2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>405</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="42" t="s">
         <v>407</v>
       </c>
       <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
     </row>
     <row r="3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="42" t="s">
         <v>410</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
     </row>
     <row r="4">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="41" t="s">
         <v>411</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="41" t="s">
         <v>414</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="41" t="s">
         <v>417</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="41" t="s">
         <v>420</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="42" t="s">
         <v>425</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="42" t="s">
         <v>428</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="42" t="s">
         <v>431</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="41" t="s">
         <v>432</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="42" t="s">
         <v>434</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="42" t="s">
         <v>437</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="41" t="s">
         <v>438</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="42" t="s">
         <v>440</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="41" t="s">
         <v>441</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="42" t="s">
         <v>443</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="41" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="42" t="s">
         <v>446</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="42" t="s">
         <v>449</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="41" t="s">
         <v>450</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="42" t="s">
         <v>419</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
     </row>
     <row r="18">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="41" t="s">
         <v>452</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="42" t="s">
         <v>454</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="41" t="s">
         <v>455</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="41" t="s">
         <v>458</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="45" t="s">
         <v>460</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
     </row>
     <row r="21">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="41" t="s">
         <v>461</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="45" t="s">
         <v>463</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
     </row>
     <row r="22">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="41" t="s">
         <v>464</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="45" t="s">
         <v>466</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="41" t="s">
         <v>467</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="42" t="s">
         <v>469</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="41" t="s">
         <v>470</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="42" t="s">
         <v>472</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
     </row>
     <row r="25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="42" t="s">
         <v>475</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="42" t="s">
         <v>484</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="42" t="s">
         <v>490</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="41" t="s">
         <v>494</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="41" t="s">
         <v>497</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="41" t="s">
         <v>503</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="42" t="s">
         <v>505</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="41" t="s">
         <v>506</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="46" t="s">
         <v>508</v>
       </c>
       <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
     </row>
     <row r="37">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="41" t="s">
         <v>509</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="46" t="s">
         <v>511</v>
       </c>
       <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
     </row>
     <row r="38">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="41" t="s">
         <v>512</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="46" t="s">
         <v>514</v>
       </c>
       <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
     </row>
     <row r="39">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="41" t="s">
         <v>515</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="45" t="s">
         <v>516</v>
       </c>
       <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
     </row>
     <row r="40">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="41" t="s">
         <v>517</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="45" t="s">
         <v>519</v>
       </c>
       <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
     </row>
     <row r="41">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="41" t="s">
         <v>520</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="47" t="s">
         <v>522</v>
       </c>
       <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
     </row>
     <row r="42">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="41" t="s">
         <v>523</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="48" t="s">
         <v>525</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
+      <c r="D42" s="49"/>
     </row>
     <row r="43">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="41" t="s">
         <v>526</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="50" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="41" t="s">
         <v>529</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="50" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="41" t="s">
         <v>532</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="51" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="41" t="s">
         <v>535</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="48" t="s">
         <v>537</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
+      <c r="D46" s="52"/>
     </row>
     <row r="47">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="41" t="s">
         <v>538</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="48" t="s">
         <v>540</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="58"/>
-      <c r="P47" s="58"/>
+      <c r="D47" s="52"/>
     </row>
     <row r="48">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="48" t="s">
         <v>543</v>
       </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
+      <c r="D48" s="52"/>
     </row>
     <row r="49">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="41" t="s">
         <v>544</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="51" t="s">
         <v>546</v>
       </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
+      <c r="D49" s="52"/>
     </row>
     <row r="50">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="41" t="s">
         <v>547</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="51" t="s">
         <v>549</v>
       </c>
     </row>
@@ -6521,7 +5984,7 @@
       <c r="E1" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="53" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -6529,334 +5992,334 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>4.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6890,7 +6353,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6914,13 +6377,13 @@
       <c r="I1" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="55" t="s">
         <v>616</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="56" t="s">
         <v>618</v>
       </c>
       <c r="M1" s="12" t="s">
@@ -6929,687 +6392,687 @@
       <c r="N1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>620</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>6.0</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="27" t="s">
         <v>623</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="57" t="s">
         <v>624</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>629</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>6.0</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="27" t="s">
         <v>631</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>6.0</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="13" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>639</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>6.0</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>641</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="13" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="27" t="s">
         <v>644</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>6.0</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="27" t="s">
         <v>646</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="27" t="s">
         <v>649</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>6.0</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="27" t="s">
         <v>651</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="13" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="27" t="s">
         <v>654</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>6.0</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="27" t="s">
         <v>656</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="13" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>6.0</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="13" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="27" t="s">
         <v>664</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>6.0</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="27" t="s">
         <v>666</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="13" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="27" t="s">
         <v>669</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>6.0</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="27" t="s">
         <v>671</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="13" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="27" t="s">
         <v>674</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <v>6.0</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="27" t="s">
         <v>676</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="13" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="27" t="s">
         <v>679</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="13">
         <v>6.0</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="27" t="s">
         <v>681</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="13" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="27" t="s">
         <v>684</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <v>6.0</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="27" t="s">
         <v>686</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="13" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="27" t="s">
         <v>689</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <v>6.0</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="27" t="s">
         <v>691</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="13" t="s">
         <v>626</v>
       </c>
       <c r="L29" s="13" t="s">
@@ -7617,404 +7080,404 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="27" t="s">
         <v>694</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="13" t="s">
         <v>695</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="L30" s="66" t="s">
+      <c r="L30" s="60" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="27" t="s">
         <v>699</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="13">
         <v>0.0</v>
       </c>
-      <c r="L31" s="14" t="s">
+      <c r="L31" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="27" t="s">
         <v>701</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E32" s="65" t="s">
+      <c r="E32" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="13" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="27" t="s">
         <v>706</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="13" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="27" t="s">
         <v>711</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="13" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="27" t="s">
         <v>715</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="L35" s="13" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="27" t="s">
         <v>719</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E36" s="65" t="s">
+      <c r="E36" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="K36" s="14" t="s">
+      <c r="K36" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="L36" s="14" t="s">
+      <c r="L36" s="13" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="27" t="s">
         <v>723</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="13">
         <v>0.0</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="L37" s="13" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="27" t="s">
         <v>725</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="13" t="s">
         <v>726</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="L38" s="14" t="s">
+      <c r="L38" s="13" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="27" t="s">
         <v>729</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="13">
         <v>0.0</v>
       </c>
-      <c r="L39" s="14" t="s">
+      <c r="L39" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="27" t="s">
         <v>731</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E40" s="65" t="s">
+      <c r="E40" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="13" t="s">
         <v>732</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="L40" s="14" t="s">
+      <c r="L40" s="13" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="27" t="s">
         <v>735</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="13">
         <v>0.0</v>
       </c>
-      <c r="L41" s="14" t="s">
+      <c r="L41" s="13" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="27" t="s">
         <v>737</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E42" s="65" t="s">
+      <c r="E42" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="13" t="s">
         <v>738</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="L42" s="14" t="s">
+      <c r="L42" s="13" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="27" t="s">
         <v>741</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="13">
         <v>0.0</v>
       </c>
-      <c r="L43" s="14" t="s">
+      <c r="L43" s="13" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="27" t="s">
         <v>743</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="E44" s="65" t="s">
+      <c r="E44" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="13" t="s">
         <v>744</v>
       </c>
       <c r="K44" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="L44" s="14" t="s">
+      <c r="L44" s="13" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="27" t="s">
         <v>747</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="61" t="s">
         <v>749</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8153,25 +7616,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="56" t="s">
         <v>611</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="56" t="s">
         <v>756</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="56" t="s">
         <v>757</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="62" t="s">
         <v>553</v>
       </c>
       <c r="H1" s="12"/>
@@ -8195,16 +7658,16 @@
       <c r="Z1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="61" t="s">
         <v>761</v>
       </c>
       <c r="G2" s="13" t="s">
@@ -8212,87 +7675,87 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="61" t="s">
         <v>764</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="61" t="s">
         <v>767</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="61" t="s">
         <v>769</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="61" t="s">
         <v>771</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="61" t="s">
         <v>773</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8312,7 +7775,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -8347,6 +7810,61 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="12"/>
     </row>
+    <row r="2">
+      <c r="A2" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="C2" s="64" t="str">
+        <f t="array" ref="C2">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A2,6,LEN(A2))</f>
+        <v>https://pubmed.ncbi.nlm.nih.gov/2384334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="C3" s="64" t="str">
+        <f t="array" ref="C3">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A3,6,LEN(A3))</f>
+        <v>https://pubmed.ncbi.nlm.nih.gov/8300416</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="C4" s="64" t="str">
+        <f t="array" ref="C4">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A4,6,LEN(A4))</f>
+        <v>https://pubmed.ncbi.nlm.nih.gov/3198482</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="C5" s="64" t="str">
+        <f t="array" ref="C5">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A5,6,LEN(A5))</f>
+        <v>https://pubmed.ncbi.nlm.nih.gov/18579364 </v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="C6" s="65" t="str">
+        <f t="array" ref="C6">"https://doi.org/" &amp; MID(A6,5,LEN(A6))</f>
+        <v>https://doi.org/10.1016/B978-0-444-53491-0.09985-5</v>
+      </c>
+      <c r="D6" s="66"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="C7" s="65" t="str">
+        <f t="array" ref="C7">"https://doi.org/" &amp; MID(A7,5,LEN(A7))</f>
+        <v>https://doi.org/10.1016/j.mpaic.2008.08.005</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8366,11 +7884,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="70" t="s">
-        <v>776</v>
-      </c>
-      <c r="B1" s="70" t="s">
-        <v>777</v>
+      <c r="A1" s="67" t="s">
+        <v>781</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>782</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -8398,11 +7916,11 @@
       <c r="Z1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
-        <v>778</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>779</v>
+      <c r="A2" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>784</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -8430,11 +7948,11 @@
       <c r="Z2" s="12"/>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>780</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>781</v>
+      <c r="A3" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>786</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -8462,11 +7980,11 @@
       <c r="Z3" s="12"/>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>782</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>783</v>
+      <c r="A4" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>788</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -8494,11 +8012,11 @@
       <c r="Z4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>785</v>
+      <c r="A5" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>790</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -8526,11 +8044,11 @@
       <c r="Z5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
-        <v>786</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>787</v>
+      <c r="A6" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>792</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -8558,11 +8076,11 @@
       <c r="Z6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
-        <v>788</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>789</v>
+      <c r="A7" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>794</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -8590,11 +8108,11 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>790</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>791</v>
+      <c r="A8" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>796</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -8622,11 +8140,11 @@
       <c r="Z8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
-        <v>792</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>793</v>
+      <c r="A9" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>798</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -8654,11 +8172,11 @@
       <c r="Z9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
-        <v>794</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>795</v>
+      <c r="A10" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>800</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -8686,11 +8204,11 @@
       <c r="Z10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>796</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>797</v>
+      <c r="A11" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>802</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -8719,10 +8237,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>799</v>
+        <v>803</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>804</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>

--- a/bronchomotor/source/bronchomotor.xlsx
+++ b/bronchomotor/source/bronchomotor.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="843">
   <si>
     <t>id</t>
   </si>
@@ -85,7 +85,7 @@
     <t>SPARC Bronchomotor Flatmap</t>
   </si>
   <si>
-    <t>bron</t>
+    <t>bromo</t>
   </si>
   <si>
     <t>subtypes</t>
@@ -1213,7 +1213,7 @@
     <t>BAG</t>
   </si>
   <si>
-    <t>Soma of SPR in T1-Neuron 1(bron)</t>
+    <t>Soma of SPR in T1-Neuron 1(bromo)</t>
   </si>
   <si>
     <t>NLX:154731</t>
@@ -1222,49 +1222,49 @@
     <t>neuron-1</t>
   </si>
   <si>
-    <t>Soma of SPR in T2-Neuron 1(bron)</t>
-  </si>
-  <si>
-    <t>Soma of SPR in T3-Neuron 1(bron)</t>
-  </si>
-  <si>
-    <t>Soma of SPR in T4-Neuron 1(bron)</t>
-  </si>
-  <si>
-    <t>Soma of SPR in T5-Neuron 1(bron)</t>
-  </si>
-  <si>
-    <t>Soma of SPR in T6-Neuron 1(bron)</t>
-  </si>
-  <si>
-    <t>Soma of SPR in T7-Neuron 1(bron)</t>
-  </si>
-  <si>
-    <t>Soma of SPR in T8-Neuron 1(bron)</t>
-  </si>
-  <si>
-    <t>Soma of SPR in T9-Neuron 1(bron)</t>
-  </si>
-  <si>
-    <t>Soma of SPR in T10-Neuron 1(bron)</t>
-  </si>
-  <si>
-    <t>Soma of SPR in T11-Neuron 1(bron)</t>
-  </si>
-  <si>
-    <t>Soma of SPR in T12-Neuron 1(bron)</t>
-  </si>
-  <si>
-    <t>Soma of SPR in T13-Neuron 1(bron)</t>
-  </si>
-  <si>
-    <t>Soma of SPR in L1-Neuron 1(bron)</t>
+    <t>Soma of SPR in T2-Neuron 1(bromo)</t>
+  </si>
+  <si>
+    <t>Soma of SPR in T3-Neuron 1(bromo)</t>
+  </si>
+  <si>
+    <t>Soma of SPR in T4-Neuron 1(bromo)</t>
+  </si>
+  <si>
+    <t>Soma of SPR in T5-Neuron 1(bromo)</t>
+  </si>
+  <si>
+    <t>Soma of SPR in T6-Neuron 1(bromo)</t>
+  </si>
+  <si>
+    <t>Soma of SPR in T7-Neuron 1(bromo)</t>
+  </si>
+  <si>
+    <t>Soma of SPR in T8-Neuron 1(bromo)</t>
+  </si>
+  <si>
+    <t>Soma of SPR in T9-Neuron 1(bromo)</t>
+  </si>
+  <si>
+    <t>Soma of SPR in T10-Neuron 1(bromo)</t>
+  </si>
+  <si>
+    <t>Soma of SPR in T11-Neuron 1(bromo)</t>
+  </si>
+  <si>
+    <t>Soma of SPR in T12-Neuron 1(bromo)</t>
+  </si>
+  <si>
+    <t>Soma of SPR in T13-Neuron 1(bromo)</t>
+  </si>
+  <si>
+    <t>Soma of SPR in L1-Neuron 1(bromo)</t>
   </si>
   <si>
     <t>snna_2</t>
   </si>
   <si>
-    <t>Soma of PSPR in N_ambiguus-Neuron 2(bron)</t>
+    <t>Soma of PSPR in N_ambiguus-Neuron 2(bromo)</t>
   </si>
   <si>
     <t>neuron-2</t>
@@ -1273,7 +1273,7 @@
     <t>sn-trac_3</t>
   </si>
   <si>
-    <t>Soma of PSPR in trachea_Neuron 3(bron)</t>
+    <t>Soma of PSPR in trachea_Neuron 3(bromo)</t>
   </si>
   <si>
     <t>neuron-3</t>
@@ -1282,7 +1282,7 @@
     <t>sn-bron_4</t>
   </si>
   <si>
-    <t>Soma of PSPR in bronchus_Neuron 4(bron)</t>
+    <t>Soma of PSPR in bronchus_Neuron 4(bromo)</t>
   </si>
   <si>
     <t>neuron-4</t>
@@ -1291,7 +1291,7 @@
     <t>sn-bronle_5</t>
   </si>
   <si>
-    <t>Soma of PSPR in bronchiole_Neuron 5(bron)</t>
+    <t>Soma of PSPR in bronchiole_Neuron 5(bromo)</t>
   </si>
   <si>
     <t>neuron-5</t>
@@ -1300,7 +1300,7 @@
     <t>sn_termbronle_6</t>
   </si>
   <si>
-    <t>Soma of PSPR in terminal bronchiole_Neuron 6(bron)</t>
+    <t>Soma of PSPR in terminal bronchiole_Neuron 6(bromo)</t>
   </si>
   <si>
     <t>neuron-6</t>
@@ -1954,7 +1954,7 @@
     <t>dc-snt1_1</t>
   </si>
   <si>
-    <t>T1-1 SPRG dendrite chain_Neuron 1 (bron)</t>
+    <t>T1-1 SPRG dendrite chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>SAO:1211023249</t>
@@ -1963,7 +1963,7 @@
     <t>ac-snt1_1</t>
   </si>
   <si>
-    <t>T1-1 SPRG axon chain_Neuron 1 (bron)</t>
+    <t>T1-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>SAO:1770195789</t>
@@ -1981,13 +1981,13 @@
     <t>dc-snt2_1</t>
   </si>
   <si>
-    <t>T2-1 SPRG dendrite chain_Neuron 1 (bron)</t>
+    <t>T2-1 SPRG dendrite chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>ac-snt2_1</t>
   </si>
   <si>
-    <t>T2-1 SPRG axon chain_Neuron 1 (bron)</t>
+    <t>T2-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>B2, B2, B33, B86, B72, n-splan</t>
@@ -1996,13 +1996,13 @@
     <t>dc-snt3_1</t>
   </si>
   <si>
-    <t>T3-1 SPRG dendrite chain_Neuron 1 (bron)</t>
+    <t>T3-1 SPRG dendrite chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>ac-snt3_1</t>
   </si>
   <si>
-    <t>T3-1 SPRG axon chain_Neuron 1 (bron)</t>
+    <t>T3-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>B3, B3, B34, B87, B73, n-splan</t>
@@ -2011,13 +2011,13 @@
     <t>dc-snt4_1</t>
   </si>
   <si>
-    <t>T4-1 SPRG dendrite chain_Neuron 1 (bron)</t>
+    <t>T4-1 SPRG dendrite chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>ac-snt4_1</t>
   </si>
   <si>
-    <t>T4-1 SPRG axon chain_Neuron 1 (bron)</t>
+    <t>T4-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>B4, B4, B35, B88, B74, n-splan</t>
@@ -2026,13 +2026,13 @@
     <t>dc-snt5_1</t>
   </si>
   <si>
-    <t>T5-1 SPRG dendrite chain_Neuron 1 (bron)</t>
+    <t>T5-1 SPRG dendrite chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>ac-snt5_1</t>
   </si>
   <si>
-    <t>T5-1 SPRG axon chain_Neuron 1 (bron)</t>
+    <t>T5-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>B5, B5, B36, B89, B75, n-splan</t>
@@ -2041,13 +2041,13 @@
     <t>dc-snt6_1</t>
   </si>
   <si>
-    <t>T6-1 SPRG dendrite chain_Neuron 1 (bron)</t>
+    <t>T6-1 SPRG dendrite chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>ac-snt6_1</t>
   </si>
   <si>
-    <t>T6-1 SPRG axon chain_Neuron 1 (bron)</t>
+    <t>T6-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>B6, B6, B37, B90, B76, n-splan</t>
@@ -2056,13 +2056,13 @@
     <t>dc-snt7_1</t>
   </si>
   <si>
-    <t>T7-1 SPRG dendrite chain_Neuron 1 (bron)</t>
+    <t>T7-1 SPRG dendrite chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>ac-snt7_1</t>
   </si>
   <si>
-    <t>T7-1 SPRG axon chain_Neuron 1 (bron)</t>
+    <t>T7-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>B7, B7, B38, B91, B77, n-splan</t>
@@ -2071,13 +2071,13 @@
     <t>dc-snt8_1</t>
   </si>
   <si>
-    <t>T8-1 SPRG dendrite chain_Neuron 1 (bron)</t>
+    <t>T8-1 SPRG dendrite chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>ac-snt8_1</t>
   </si>
   <si>
-    <t>T8-1 SPRG axon chain_Neuron 1 (bron)</t>
+    <t>T8-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>B8, B8, B39, B92, B78, n-splan</t>
@@ -2086,13 +2086,13 @@
     <t>dc-snt9_1</t>
   </si>
   <si>
-    <t>T9-1 SPRG dendrite chain_Neuron 1 (bron)</t>
+    <t>T9-1 SPRG dendrite chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>ac-snt9_1</t>
   </si>
   <si>
-    <t>T9-1 SPRG axon chain_Neuron 1 (bron)</t>
+    <t>T9-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>B9, B9, B40, B93, B79, n-splan</t>
@@ -2101,13 +2101,13 @@
     <t>dc-snt10_1</t>
   </si>
   <si>
-    <t>T10-1 SPRG dendrite chain_Neuron 1 (bron)</t>
+    <t>T10-1 SPRG dendrite chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>ac-snt10_1</t>
   </si>
   <si>
-    <t>T10-1 SPRG axon chain_Neuron 1 (bron)</t>
+    <t>T10-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>B10, B10, B41, B94, B80, n-splan</t>
@@ -2116,13 +2116,13 @@
     <t>dc-snt11_1</t>
   </si>
   <si>
-    <t>T11-1 SPRG dendrite chain_Neuron 1 (bron)</t>
+    <t>T11-1 SPRG dendrite chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>ac-snt11_1</t>
   </si>
   <si>
-    <t>T11-1 SPRG axon chain_Neuron 1 (bron)</t>
+    <t>T11-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>B11, B11, B42, B95, B81, n-splan</t>
@@ -2131,13 +2131,13 @@
     <t>dc-snt12_1</t>
   </si>
   <si>
-    <t>T12-1 SPRG dendrite chain_Neuron 1 (bron)</t>
+    <t>T12-1 SPRG dendrite chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>ac-snt12_1</t>
   </si>
   <si>
-    <t>T12-1 SPRG axon chain_Neuron 1 (bron)</t>
+    <t>T12-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>B12, B12, B43, B96, B82, n-splan</t>
@@ -2146,13 +2146,13 @@
     <t>dc-snt13_1</t>
   </si>
   <si>
-    <t>T13-1 SPRG dendrite chain_Neuron 1 (bron)</t>
+    <t>T13-1 SPRG dendrite chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>ac-snt13_1</t>
   </si>
   <si>
-    <t>T13-1 SPRG axon chain_Neuron 1 (bron)</t>
+    <t>T13-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>B13, B13, B44, B97, B83, n-splan</t>
@@ -2161,13 +2161,13 @@
     <t>dc-snl1_1</t>
   </si>
   <si>
-    <t>L1-1 SPRG dendrite chain_Neuron 1 (bron)</t>
+    <t>L1-1 SPRG dendrite chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>ac-snl1_1</t>
   </si>
   <si>
-    <t>L1-1 SPRG axon chain_Neuron 1 (bron)</t>
+    <t>L1-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>B14, B14, B125, B124, B83, n-splan</t>
@@ -2176,7 +2176,7 @@
     <t>ac-am_1</t>
   </si>
   <si>
-    <t>spinal cord to adrenal medulla SPRG axon chain_Neuron 1 (bron)</t>
+    <t>spinal cord to adrenal medulla SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
     <t>ns29_5</t>
@@ -2191,13 +2191,13 @@
     <t>dc-snna_2</t>
   </si>
   <si>
-    <t>Med-2 PPRG dendrite chain_Neuron 2 (bron)</t>
+    <t>Med-2 PPRG dendrite chain_Neuron 2 (bromo)</t>
   </si>
   <si>
     <t>ac-snna_2</t>
   </si>
   <si>
-    <t>N_ambiguus-2 PPRG axon chain_Neuron 2 (bron)</t>
+    <t>N_ambiguus-2 PPRG axon chain_Neuron 2 (bromo)</t>
   </si>
   <si>
     <t>ns32</t>
@@ -2212,7 +2212,7 @@
     <t>ac-tra_2</t>
   </si>
   <si>
-    <t>PPRG in trachea_2 axon chainNeuron 2 (bron)</t>
+    <t>PPRG in trachea_2 axon chainNeuron 2 (bromo)</t>
   </si>
   <si>
     <t>ns33</t>
@@ -2227,7 +2227,7 @@
     <t>ac-bron_2</t>
   </si>
   <si>
-    <t>PPRG in bronchus_2 axon chain_Neuron 2 (bron)</t>
+    <t>PPRG in bronchus_2 axon chain_Neuron 2 (bromo)</t>
   </si>
   <si>
     <t>ns34</t>
@@ -2239,7 +2239,7 @@
     <t>ac-bronl_2</t>
   </si>
   <si>
-    <t>PPRG in bronchiole_2 axon chain_Neuron 2 (bron)</t>
+    <t>PPRG in bronchiole_2 axon chain_Neuron 2 (bromo)</t>
   </si>
   <si>
     <t>ns35</t>
@@ -2251,7 +2251,7 @@
     <t>ac-terbronl_2</t>
   </si>
   <si>
-    <t>PPRG in terminal bronchiole_2 axon chain_Neuron 2 (bron)</t>
+    <t>PPRG in terminal bronchiole_2 axon chain_Neuron 2 (bromo)</t>
   </si>
   <si>
     <t>ns35_5</t>
@@ -2263,13 +2263,13 @@
     <t>dc-trac_3</t>
   </si>
   <si>
-    <t>PPRG in trachea_3 dendrite chain_Neuron 3 (bron)</t>
+    <t>PPRG in trachea_3 dendrite chain_Neuron 3 (bromo)</t>
   </si>
   <si>
     <t>ac-trac_3</t>
   </si>
   <si>
-    <t>PPRG in trachea_3 axon chain_Neuron 3 (bron)</t>
+    <t>PPRG in trachea_3 axon chain_Neuron 3 (bromo)</t>
   </si>
   <si>
     <t>ns42</t>
@@ -2281,13 +2281,13 @@
     <t>dc-bron_4</t>
   </si>
   <si>
-    <t>PPRG in bronchus_4 axon chain_Neuron 4 (bron)</t>
+    <t>PPRG in bronchus_4 axon chain_Neuron 4 (bromo)</t>
   </si>
   <si>
     <t>ac-bron_4</t>
   </si>
   <si>
-    <t>PPRG in bronchus_4 dendrite chain_Neuron 4 (bron)</t>
+    <t>PPRG in bronchus_4 dendrite chain_Neuron 4 (bromo)</t>
   </si>
   <si>
     <t>ns47</t>
@@ -2299,13 +2299,13 @@
     <t>dc-bronle_5</t>
   </si>
   <si>
-    <t>PPRG in bronchiole_5 dendrite chain_Neuron 5 (bron)</t>
+    <t>PPRG in bronchiole_5 dendrite chain_Neuron 5 (bromo)</t>
   </si>
   <si>
     <t>ac-bronle_5</t>
   </si>
   <si>
-    <t>PPRG in bronchiole_5 axon chain_Neuron 5 (bron)</t>
+    <t>PPRG in bronchiole_5 axon chain_Neuron 5 (bromo)</t>
   </si>
   <si>
     <t>ns52</t>
@@ -2317,13 +2317,13 @@
     <t>dc_termbronle_6</t>
   </si>
   <si>
-    <t>PPRG in terminal bronchiole_6 dendrite chain_Neuron 6 (bron)</t>
+    <t>PPRG in terminal bronchiole_6 dendrite chain_Neuron 6 (bromo)</t>
   </si>
   <si>
     <t>ac_termbronle_6</t>
   </si>
   <si>
-    <t>PPRG in terminal bronchiole_6 axon chain_Neuron 6 (bron)</t>
+    <t>PPRG in terminal bronchiole_6 axon chain_Neuron 6 (bromo)</t>
   </si>
   <si>
     <t>ns57</t>
@@ -2486,6 +2486,12 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_</t>
   </si>
   <si>
     <t>population</t>
@@ -2594,7 +2600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2609,6 +2615,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <sz val="11.0"/>
@@ -2628,7 +2635,6 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -2719,6 +2725,11 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2778,7 +2789,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2791,19 +2802,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2815,11 +2826,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -2827,28 +2841,28 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2875,9 +2889,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -2887,7 +2898,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -2908,13 +2919,13 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2954,7 +2965,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2966,7 +2977,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2998,6 +3009,12 @@
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3013,10 +3030,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3318,16 +3335,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -3342,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -3373,223 +3390,223 @@
     </row>
     <row r="4">
       <c r="A4" s="10"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>814</v>
-      </c>
-      <c r="B5" s="74" t="s">
-        <v>815</v>
-      </c>
-      <c r="C5" s="74" t="s">
         <v>816</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
+      <c r="B5" s="76" t="s">
+        <v>817</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>818</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>817</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>818</v>
-      </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
+      <c r="B6" s="76" t="s">
+        <v>819</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>820</v>
+      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7">
       <c r="A7" s="10"/>
-      <c r="B7" s="74" t="s">
-        <v>819</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>818</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
+      <c r="B7" s="76" t="s">
+        <v>821</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>820</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8">
       <c r="A8" s="10"/>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="76" t="s">
+        <v>822</v>
+      </c>
+      <c r="C8" s="76" t="s">
         <v>820</v>
       </c>
-      <c r="C8" s="74" t="s">
-        <v>818</v>
-      </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9">
       <c r="A9" s="10"/>
-      <c r="B9" s="74" t="s">
-        <v>821</v>
-      </c>
-      <c r="C9" s="74" t="s">
-        <v>818</v>
-      </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
+      <c r="B9" s="76" t="s">
+        <v>823</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>820</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10">
       <c r="A10" s="10"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>822</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>823</v>
-      </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
+        <v>824</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>825</v>
+      </c>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>825</v>
-      </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
+        <v>826</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>827</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>827</v>
-      </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
+        <v>828</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>829</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14">
       <c r="A14" s="10"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>829</v>
-      </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
+        <v>830</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>831</v>
+      </c>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>830</v>
-      </c>
-      <c r="B16" s="77" t="s">
+        <v>832</v>
+      </c>
+      <c r="B16" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>832</v>
+        <v>833</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="18">
@@ -3612,36 +3629,36 @@
     </row>
     <row r="24">
       <c r="A24" s="65" t="s">
-        <v>833</v>
-      </c>
-      <c r="B24" s="80" t="s">
-        <v>834</v>
+        <v>835</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="65" t="s">
-        <v>835</v>
-      </c>
-      <c r="B25" s="80" t="s">
-        <v>836</v>
+        <v>837</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="65" t="s">
-        <v>837</v>
-      </c>
-      <c r="B26" s="81" t="s">
-        <v>838</v>
+        <v>839</v>
+      </c>
+      <c r="B26" s="83" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="27" hidden="1">
       <c r="A27" s="10" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="28" hidden="1">
       <c r="A28" s="10" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="29">
@@ -3753,18 +3770,18 @@
         <v>24</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -3774,18 +3791,18 @@
         <v>29</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -3795,13 +3812,13 @@
         <v>33</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="14">
         <v>6.0</v>
       </c>
     </row>
@@ -3816,18 +3833,18 @@
         <v>37</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -3837,18 +3854,18 @@
         <v>41</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -3858,13 +3875,13 @@
         <v>45</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="14">
         <v>6.0</v>
       </c>
     </row>
@@ -3879,18 +3896,18 @@
         <v>49</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -3900,18 +3917,18 @@
         <v>53</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -3921,13 +3938,13 @@
         <v>57</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="14">
         <v>6.0</v>
       </c>
     </row>
@@ -3942,18 +3959,18 @@
         <v>61</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -3963,18 +3980,18 @@
         <v>65</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -3984,13 +4001,13 @@
         <v>70</v>
       </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="14">
         <v>6.0</v>
       </c>
     </row>
@@ -4001,22 +4018,22 @@
       <c r="B14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>74</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -4026,30 +4043,30 @@
         <v>78</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="4" t="b">
+      <c r="E16" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="19" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4063,37 +4080,37 @@
       <c r="C17" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14" t="s">
+      <c r="L17" s="15"/>
+      <c r="M17" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>89</v>
       </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>92</v>
       </c>
       <c r="I19" s="10"/>
@@ -4102,34 +4119,34 @@
       <c r="A20" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>95</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="22"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>101</v>
       </c>
       <c r="I22" s="10"/>
@@ -4138,34 +4155,34 @@
       <c r="A23" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>104</v>
       </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>107</v>
       </c>
       <c r="I24" s="10"/>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>110</v>
       </c>
       <c r="I25" s="10"/>
@@ -4174,22 +4191,22 @@
       <c r="A26" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="22"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>116</v>
       </c>
       <c r="I27" s="10"/>
@@ -4198,70 +4215,70 @@
       <c r="A28" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="22"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="22"/>
+      <c r="I29" s="23"/>
     </row>
     <row r="30">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="I30" s="22"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="I31" s="22"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="I32" s="22"/>
+      <c r="I32" s="23"/>
     </row>
     <row r="33">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="28" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4272,34 +4289,34 @@
       <c r="B34" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I34" s="22"/>
+      <c r="I34" s="23"/>
     </row>
     <row r="35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I35" s="22"/>
+      <c r="I35" s="23"/>
     </row>
     <row r="36">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I36" s="22"/>
+      <c r="I36" s="23"/>
     </row>
     <row r="37">
       <c r="A37" s="11" t="s">
@@ -4308,34 +4325,34 @@
       <c r="B37" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I37" s="22"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I38" s="22"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I39" s="22"/>
+      <c r="I39" s="23"/>
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
@@ -4344,34 +4361,34 @@
       <c r="B40" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I40" s="22"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I41" s="22"/>
+      <c r="I41" s="23"/>
     </row>
     <row r="42">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>150</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I42" s="22"/>
+      <c r="I42" s="23"/>
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
@@ -4380,74 +4397,74 @@
       <c r="B43" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I43" s="22"/>
+      <c r="I43" s="23"/>
     </row>
     <row r="44">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>154</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I44" s="22"/>
+      <c r="I44" s="23"/>
     </row>
     <row r="45">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>156</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I45" s="22"/>
+      <c r="I45" s="23"/>
     </row>
     <row r="46">
       <c r="A46" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="22" t="s">
         <v>159</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="I46" s="22"/>
+      <c r="I46" s="23"/>
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="22" t="s">
         <v>161</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I47" s="22"/>
+      <c r="I47" s="23"/>
     </row>
     <row r="48">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="22" t="s">
         <v>164</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I48" s="22"/>
+      <c r="I48" s="23"/>
     </row>
     <row r="49">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="22" t="s">
         <v>166</v>
       </c>
       <c r="C49" s="13" t="s">
@@ -4459,7 +4476,7 @@
       <c r="A50" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="22" t="s">
         <v>168</v>
       </c>
       <c r="C50" s="13" t="s">
@@ -4468,10 +4485,10 @@
       <c r="I50" s="10"/>
     </row>
     <row r="51">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="22" t="s">
         <v>170</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -4480,10 +4497,10 @@
       <c r="I51" s="10"/>
     </row>
     <row r="52">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="22" t="s">
         <v>172</v>
       </c>
       <c r="C52" s="13" t="s">
@@ -4495,7 +4512,7 @@
       <c r="A53" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="22" t="s">
         <v>174</v>
       </c>
       <c r="C53" s="13" t="s">
@@ -4504,10 +4521,10 @@
       <c r="I53" s="10"/>
     </row>
     <row r="54">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="22" t="s">
         <v>176</v>
       </c>
       <c r="C54" s="13" t="s">
@@ -4519,7 +4536,7 @@
       <c r="A55" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="22" t="s">
         <v>178</v>
       </c>
       <c r="C55" s="13" t="s">
@@ -4528,10 +4545,10 @@
       <c r="I55" s="10"/>
     </row>
     <row r="56">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="22" t="s">
         <v>180</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -4540,10 +4557,10 @@
       <c r="I56" s="10"/>
     </row>
     <row r="57">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="22" t="s">
         <v>182</v>
       </c>
       <c r="C57" s="13" t="s">
@@ -4555,7 +4572,7 @@
       <c r="A58" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="17" t="s">
         <v>184</v>
       </c>
       <c r="C58" s="13" t="s">
@@ -4564,10 +4581,10 @@
       <c r="I58" s="10"/>
     </row>
     <row r="59">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="17" t="s">
         <v>186</v>
       </c>
       <c r="C59" s="13" t="s">
@@ -4576,13 +4593,13 @@
       <c r="I59" s="10"/>
     </row>
     <row r="60">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="15" t="s">
         <v>187</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="21" t="s">
         <v>189</v>
       </c>
       <c r="I60" s="10"/>
@@ -4594,31 +4611,31 @@
       <c r="B61" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="21" t="s">
         <v>192</v>
       </c>
       <c r="I61" s="10"/>
     </row>
     <row r="62">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="21" t="s">
         <v>195</v>
       </c>
       <c r="I62" s="10"/>
     </row>
     <row r="63">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="21" t="s">
         <v>198</v>
       </c>
       <c r="I63" s="10"/>
@@ -4630,31 +4647,31 @@
       <c r="B64" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="21" t="s">
         <v>201</v>
       </c>
       <c r="I64" s="10"/>
     </row>
     <row r="65">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="15" t="s">
         <v>202</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="21" t="s">
         <v>204</v>
       </c>
       <c r="I65" s="10"/>
     </row>
     <row r="66">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="15" t="s">
         <v>205</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="21" t="s">
         <v>207</v>
       </c>
       <c r="I66" s="10"/>
@@ -4666,31 +4683,31 @@
       <c r="B67" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="21" t="s">
         <v>210</v>
       </c>
       <c r="I67" s="10"/>
     </row>
     <row r="68">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="15" t="s">
         <v>211</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="21" t="s">
         <v>213</v>
       </c>
       <c r="I68" s="10"/>
     </row>
     <row r="69">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="21" t="s">
         <v>216</v>
       </c>
       <c r="I69" s="10"/>
@@ -4702,13 +4719,13 @@
       <c r="B70" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="21" t="s">
         <v>219</v>
       </c>
       <c r="I70" s="10"/>
     </row>
     <row r="71">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="15" t="s">
         <v>220</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -4720,7 +4737,7 @@
       <c r="I71" s="10"/>
     </row>
     <row r="72">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="15" t="s">
         <v>223</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -4735,34 +4752,34 @@
       <c r="A73" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="21" t="s">
         <v>228</v>
       </c>
       <c r="I73" s="10"/>
     </row>
     <row r="74">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="21" t="s">
         <v>228</v>
       </c>
       <c r="I74" s="10"/>
     </row>
     <row r="75">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="21" t="s">
         <v>228</v>
       </c>
       <c r="I75" s="10"/>
@@ -4771,34 +4788,34 @@
       <c r="A76" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="21" t="s">
         <v>228</v>
       </c>
       <c r="I76" s="10"/>
     </row>
     <row r="77">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="21" t="s">
         <v>228</v>
       </c>
       <c r="I77" s="10"/>
     </row>
     <row r="78">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="21" t="s">
         <v>228</v>
       </c>
       <c r="I78" s="10"/>
@@ -4807,22 +4824,22 @@
       <c r="A79" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="21" t="s">
         <v>228</v>
       </c>
       <c r="I79" s="10"/>
     </row>
     <row r="80">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="21" t="s">
         <v>228</v>
       </c>
       <c r="I80" s="10"/>
@@ -4831,34 +4848,34 @@
       <c r="A81" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="21" t="s">
         <v>228</v>
       </c>
       <c r="I81" s="10"/>
     </row>
     <row r="82">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="21" t="s">
         <v>228</v>
       </c>
       <c r="I82" s="10"/>
     </row>
     <row r="83">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="21" t="s">
         <v>228</v>
       </c>
       <c r="I83" s="10"/>
@@ -4867,19 +4884,19 @@
       <c r="A84" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="21" t="s">
         <v>228</v>
       </c>
       <c r="I84" s="10"/>
     </row>
     <row r="85">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="22" t="s">
         <v>252</v>
       </c>
       <c r="C85" s="13" t="s">
@@ -4891,10 +4908,10 @@
       <c r="A86" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="21" t="s">
         <v>255</v>
       </c>
       <c r="I86" s="10"/>
@@ -4903,34 +4920,34 @@
       <c r="A87" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="21" t="s">
         <v>258</v>
       </c>
       <c r="I87" s="10"/>
     </row>
     <row r="88">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="21" t="s">
         <v>258</v>
       </c>
       <c r="I88" s="10"/>
     </row>
     <row r="89">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="21" t="s">
         <v>258</v>
       </c>
       <c r="I89" s="10"/>
@@ -4939,34 +4956,34 @@
       <c r="A90" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="21" t="s">
         <v>258</v>
       </c>
       <c r="I90" s="10"/>
     </row>
     <row r="91">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="21" t="s">
         <v>258</v>
       </c>
       <c r="I91" s="10"/>
     </row>
     <row r="92">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="21" t="s">
         <v>258</v>
       </c>
       <c r="I92" s="10"/>
@@ -4975,34 +4992,34 @@
       <c r="A93" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="21" t="s">
         <v>258</v>
       </c>
       <c r="I93" s="10"/>
     </row>
     <row r="94">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="21" t="s">
         <v>258</v>
       </c>
       <c r="I94" s="10"/>
     </row>
     <row r="95">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="21" t="s">
         <v>258</v>
       </c>
       <c r="I95" s="10"/>
@@ -5011,34 +5028,34 @@
       <c r="A96" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="21" t="s">
         <v>258</v>
       </c>
       <c r="I96" s="10"/>
     </row>
     <row r="97">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="21" t="s">
         <v>258</v>
       </c>
       <c r="I97" s="10"/>
     </row>
     <row r="98">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="21" t="s">
         <v>258</v>
       </c>
       <c r="I98" s="10"/>
@@ -5047,10 +5064,10 @@
       <c r="A99" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="21" t="s">
         <v>258</v>
       </c>
       <c r="I99" s="10"/>
@@ -5059,10 +5076,10 @@
       <c r="A100" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="29" t="s">
         <v>285</v>
       </c>
       <c r="I100" s="3"/>
@@ -5071,10 +5088,10 @@
       <c r="A101" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="29" t="s">
         <v>288</v>
       </c>
       <c r="I101" s="3" t="s">
@@ -5082,13 +5099,13 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="29" t="s">
         <v>292</v>
       </c>
       <c r="I102" s="10"/>
@@ -5097,48 +5114,48 @@
       <c r="A103" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="29" t="s">
         <v>295</v>
       </c>
       <c r="I103" s="3"/>
-      <c r="M103" s="4" t="s">
+      <c r="M103" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="N103" s="4">
+      <c r="N103" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="29" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="29" t="s">
         <v>301</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="M105" s="4" t="s">
+      <c r="M105" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="N105" s="4" t="s">
+      <c r="N105" s="14" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5146,19 +5163,19 @@
       <c r="A106" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="29" t="s">
         <v>307</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="M106" s="4" t="s">
+      <c r="M106" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="N106" s="4" t="s">
+      <c r="N106" s="14" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5166,62 +5183,62 @@
       <c r="A107" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C107" s="29" t="s">
+      <c r="C107" s="30" t="s">
         <v>312</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="M107" s="4" t="s">
+      <c r="M107" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="N107" s="4" t="s">
+      <c r="N107" s="14" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="29" t="s">
+      <c r="C108" s="30" t="s">
         <v>317</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="M108" s="4" t="s">
+      <c r="M108" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="N108" s="4" t="s">
+      <c r="N108" s="14" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="C109" s="30" t="s">
         <v>322</v>
       </c>
       <c r="I109" s="10"/>
     </row>
     <row r="110">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C110" s="28" t="s">
+      <c r="C110" s="29" t="s">
         <v>325</v>
       </c>
       <c r="I110" s="10"/>
@@ -5230,10 +5247,10 @@
       <c r="A111" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="29" t="s">
         <v>328</v>
       </c>
       <c r="I111" s="10"/>
@@ -5242,25 +5259,25 @@
       <c r="A112" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C112" s="29" t="s">
         <v>331</v>
       </c>
       <c r="I112" s="10"/>
     </row>
     <row r="113">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="C113" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="E113" s="4" t="b">
+      <c r="E113" s="14" t="b">
         <v>1</v>
       </c>
       <c r="I113" s="3" t="s">
@@ -5268,127 +5285,127 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="28" t="s">
+      <c r="C114" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="E114" s="4" t="b">
+      <c r="E114" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="I114" s="24"/>
-      <c r="M114" s="4" t="s">
+      <c r="I114" s="25"/>
+      <c r="M114" s="14" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C115" s="28" t="s">
+      <c r="C115" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="I115" s="24"/>
+      <c r="I115" s="25"/>
     </row>
     <row r="116">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="C116" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="I116" s="24"/>
+      <c r="I116" s="25"/>
     </row>
     <row r="117">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="C117" s="28" t="s">
+      <c r="C117" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="I117" s="24"/>
+      <c r="I117" s="25"/>
     </row>
     <row r="118">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="C118" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="I118" s="24"/>
+      <c r="I118" s="25"/>
     </row>
     <row r="119">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="15" t="s">
         <v>348</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="I119" s="22"/>
+      <c r="I119" s="23"/>
     </row>
     <row r="120">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="C120" s="28" t="s">
+      <c r="C120" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="I120" s="24"/>
+      <c r="I120" s="25"/>
     </row>
     <row r="121">
       <c r="A121" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C121" s="28" t="s">
+      <c r="C121" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="I121" s="24"/>
+      <c r="I121" s="25"/>
     </row>
     <row r="122">
       <c r="A122" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="C122" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="I122" s="24"/>
+      <c r="I122" s="25"/>
     </row>
     <row r="123">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="C123" s="29" t="s">
         <v>361</v>
       </c>
       <c r="I123" s="10"/>
@@ -5397,34 +5414,34 @@
       <c r="A124" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="I124" s="24"/>
+      <c r="I124" s="25"/>
     </row>
     <row r="125">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="C125" s="28" t="s">
+      <c r="C125" s="29" t="s">
         <v>367</v>
       </c>
       <c r="I125" s="10"/>
     </row>
     <row r="126">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="C126" s="28" t="s">
+      <c r="C126" s="29" t="s">
         <v>370</v>
       </c>
       <c r="I126" s="10"/>
@@ -5433,10 +5450,10 @@
       <c r="A127" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C127" s="28" t="s">
+      <c r="C127" s="29" t="s">
         <v>373</v>
       </c>
       <c r="I127" s="10"/>
@@ -5445,25 +5462,25 @@
       <c r="A128" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="C128" s="28" t="s">
+      <c r="C128" s="29" t="s">
         <v>352</v>
       </c>
       <c r="I128" s="10"/>
     </row>
     <row r="129">
-      <c r="A129" s="30" t="s">
+      <c r="A129" s="31" t="s">
         <v>375</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="E129" s="4" t="b">
+      <c r="E129" s="14" t="b">
         <v>1</v>
       </c>
       <c r="I129" s="3" t="s">
@@ -5471,380 +5488,380 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="31" t="s">
+      <c r="A130" s="32" t="s">
         <v>379</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="E130" s="4" t="b">
+      <c r="E130" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I130" s="10"/>
     </row>
     <row r="131">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B131" s="32" t="s">
+      <c r="B131" s="4" t="s">
         <v>382</v>
       </c>
       <c r="C131" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I131" s="10"/>
-      <c r="J131" s="4" t="s">
+      <c r="J131" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="R131" s="4" t="s">
+      <c r="R131" s="14" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B132" s="32" t="s">
+      <c r="B132" s="4" t="s">
         <v>385</v>
       </c>
       <c r="C132" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I132" s="10"/>
-      <c r="J132" s="4" t="s">
+      <c r="J132" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B133" s="32" t="s">
+      <c r="B133" s="4" t="s">
         <v>386</v>
       </c>
       <c r="C133" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I133" s="10"/>
-      <c r="J133" s="4" t="s">
+      <c r="J133" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B134" s="32" t="s">
+      <c r="B134" s="4" t="s">
         <v>387</v>
       </c>
       <c r="C134" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I134" s="10"/>
-      <c r="J134" s="4" t="s">
+      <c r="J134" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B135" s="32" t="s">
+      <c r="B135" s="4" t="s">
         <v>388</v>
       </c>
       <c r="C135" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I135" s="10"/>
-      <c r="J135" s="4" t="s">
+      <c r="J135" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B136" s="32" t="s">
+      <c r="B136" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C136" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I136" s="10"/>
-      <c r="J136" s="4" t="s">
+      <c r="J136" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B137" s="32" t="s">
+      <c r="B137" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C137" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I137" s="10"/>
-      <c r="J137" s="4" t="s">
+      <c r="J137" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B138" s="32" t="s">
+      <c r="B138" s="4" t="s">
         <v>391</v>
       </c>
       <c r="C138" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I138" s="10"/>
-      <c r="J138" s="4" t="s">
+      <c r="J138" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B139" s="32" t="s">
+      <c r="B139" s="4" t="s">
         <v>392</v>
       </c>
       <c r="C139" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I139" s="10"/>
-      <c r="J139" s="4" t="s">
+      <c r="J139" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B140" s="32" t="s">
+      <c r="B140" s="4" t="s">
         <v>393</v>
       </c>
       <c r="C140" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I140" s="10"/>
-      <c r="J140" s="4" t="s">
+      <c r="J140" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B141" s="32" t="s">
+      <c r="B141" s="4" t="s">
         <v>394</v>
       </c>
       <c r="C141" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I141" s="10"/>
-      <c r="J141" s="4" t="s">
+      <c r="J141" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B142" s="32" t="s">
+      <c r="B142" s="4" t="s">
         <v>395</v>
       </c>
       <c r="C142" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F142" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I142" s="10"/>
-      <c r="J142" s="4" t="s">
+      <c r="J142" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B143" s="32" t="s">
+      <c r="B143" s="4" t="s">
         <v>396</v>
       </c>
       <c r="C143" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I143" s="10"/>
-      <c r="J143" s="4" t="s">
+      <c r="J143" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B144" s="32" t="s">
+      <c r="B144" s="4" t="s">
         <v>397</v>
       </c>
       <c r="C144" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I144" s="10"/>
-      <c r="J144" s="4" t="s">
+      <c r="J144" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="B145" s="32" t="s">
+      <c r="B145" s="4" t="s">
         <v>399</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I145" s="10"/>
-      <c r="J145" s="4" t="s">
+      <c r="J145" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="R145" s="4" t="s">
+      <c r="R145" s="14" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="B146" s="32" t="s">
+      <c r="B146" s="4" t="s">
         <v>402</v>
       </c>
       <c r="C146" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F146" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I146" s="10"/>
-      <c r="J146" s="4" t="s">
+      <c r="J146" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="R146" s="4" t="s">
+      <c r="R146" s="14" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="B147" s="32" t="s">
+      <c r="B147" s="4" t="s">
         <v>405</v>
       </c>
       <c r="C147" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I147" s="10"/>
-      <c r="J147" s="4" t="s">
+      <c r="J147" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="R147" s="4" t="s">
+      <c r="R147" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="B148" s="32" t="s">
+      <c r="B148" s="4" t="s">
         <v>408</v>
       </c>
       <c r="C148" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="F148" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I148" s="10"/>
-      <c r="J148" s="4" t="s">
+      <c r="J148" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="R148" s="4" t="s">
+      <c r="R148" s="14" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="B149" s="32" t="s">
+      <c r="B149" s="4" t="s">
         <v>411</v>
       </c>
       <c r="C149" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F149" s="14" t="s">
         <v>381</v>
       </c>
       <c r="I149" s="10"/>
-      <c r="J149" s="4" t="s">
+      <c r="J149" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="R149" s="4" t="s">
+      <c r="R149" s="14" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5915,7 +5932,7 @@
       <c r="A2" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>415</v>
       </c>
       <c r="C2" s="44" t="s">
@@ -5927,7 +5944,7 @@
       <c r="A3" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>418</v>
       </c>
       <c r="C3" s="44" t="s">
@@ -5945,7 +5962,7 @@
       <c r="C4" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
@@ -5957,7 +5974,7 @@
       <c r="C5" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6">
       <c r="A6" s="43" t="s">
@@ -5981,13 +5998,13 @@
       <c r="C7" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>433</v>
       </c>
       <c r="C8" s="44" t="s">
@@ -5999,7 +6016,7 @@
       <c r="A9" s="43" t="s">
         <v>435</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>436</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -6011,7 +6028,7 @@
       <c r="A10" s="43" t="s">
         <v>438</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>439</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -6023,7 +6040,7 @@
       <c r="A11" s="43" t="s">
         <v>441</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>442</v>
       </c>
       <c r="C11" s="44" t="s">
@@ -6035,7 +6052,7 @@
       <c r="A12" s="43" t="s">
         <v>444</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>445</v>
       </c>
       <c r="C12" s="44" t="s">
@@ -6047,7 +6064,7 @@
       <c r="A13" s="43" t="s">
         <v>447</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>448</v>
       </c>
       <c r="C13" s="44" t="s">
@@ -6059,7 +6076,7 @@
       <c r="A14" s="43" t="s">
         <v>450</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>451</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -6071,7 +6088,7 @@
       <c r="A15" s="43" t="s">
         <v>453</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>454</v>
       </c>
       <c r="C15" s="44" t="s">
@@ -6083,7 +6100,7 @@
       <c r="A16" s="43" t="s">
         <v>456</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>457</v>
       </c>
       <c r="C16" s="44" t="s">
@@ -6095,7 +6112,7 @@
       <c r="A17" s="43" t="s">
         <v>459</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>460</v>
       </c>
       <c r="C17" s="44" t="s">
@@ -6107,7 +6124,7 @@
       <c r="A18" s="43" t="s">
         <v>461</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>462</v>
       </c>
       <c r="C18" s="44" t="s">
@@ -6119,13 +6136,13 @@
       <c r="A19" s="43" t="s">
         <v>464</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>465</v>
       </c>
       <c r="C19" s="46" t="s">
         <v>466</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20">
       <c r="A20" s="43" t="s">
@@ -6161,25 +6178,25 @@
       <c r="C22" s="47" t="s">
         <v>475</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23">
       <c r="A23" s="43" t="s">
         <v>476</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>477</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24">
       <c r="A24" s="43" t="s">
         <v>479</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>480</v>
       </c>
       <c r="C24" s="44" t="s">
@@ -6191,7 +6208,7 @@
       <c r="A25" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>483</v>
       </c>
       <c r="C25" s="44" t="s">
@@ -6203,121 +6220,121 @@
       <c r="A26" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>486</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>487</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27">
       <c r="A27" s="43" t="s">
         <v>488</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>489</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28">
       <c r="A28" s="43" t="s">
         <v>491</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="23" t="s">
         <v>492</v>
       </c>
       <c r="C28" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29">
       <c r="A29" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="23" t="s">
         <v>495</v>
       </c>
       <c r="C29" s="44" t="s">
         <v>496</v>
       </c>
-      <c r="D29" s="22"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30">
       <c r="A30" s="43" t="s">
         <v>497</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="23" t="s">
         <v>498</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="D30" s="22"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31">
       <c r="A31" s="43" t="s">
         <v>500</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="23" t="s">
         <v>501</v>
       </c>
       <c r="C31" s="44" t="s">
         <v>502</v>
       </c>
-      <c r="D31" s="22"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32">
       <c r="A32" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="23" t="s">
         <v>504</v>
       </c>
       <c r="C32" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="D32" s="22"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33">
       <c r="A33" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="23" t="s">
         <v>507</v>
       </c>
       <c r="C33" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34">
       <c r="A34" s="43" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="23" t="s">
         <v>510</v>
       </c>
       <c r="C34" s="44" t="s">
         <v>511</v>
       </c>
-      <c r="D34" s="22"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35">
       <c r="A35" s="43" t="s">
         <v>512</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>513</v>
       </c>
       <c r="C35" s="44" t="s">
         <v>514</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36">
       <c r="A36" s="43" t="s">
@@ -6440,7 +6457,7 @@
       <c r="A46" s="43" t="s">
         <v>544</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="14" t="s">
         <v>545</v>
       </c>
       <c r="C46" s="50" t="s">
@@ -6452,7 +6469,7 @@
       <c r="A47" s="43" t="s">
         <v>547</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="14" t="s">
         <v>548</v>
       </c>
       <c r="C47" s="50" t="s">
@@ -6464,7 +6481,7 @@
       <c r="A48" s="43" t="s">
         <v>550</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="14" t="s">
         <v>551</v>
       </c>
       <c r="C48" s="50" t="s">
@@ -6537,334 +6554,327 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="14" t="s">
         <v>611</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="14" t="s">
         <v>616</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="14">
         <v>4.0</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6887,7 +6897,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="27.0"/>
+    <col customWidth="1" min="2" max="2" width="55.0"/>
     <col customWidth="1" min="3" max="3" width="18.0"/>
     <col customWidth="1" min="4" max="4" width="10.14"/>
     <col customWidth="1" min="7" max="7" width="10.86"/>
@@ -6937,7 +6947,7 @@
       <c r="N1" s="10"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>628</v>
       </c>
       <c r="B2" s="59" t="s">
@@ -6947,21 +6957,21 @@
         <v>630</v>
       </c>
       <c r="D2" s="61"/>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="14">
         <v>6.0</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>631</v>
       </c>
       <c r="B3" s="59" t="s">
@@ -6974,21 +6984,21 @@
       <c r="E3" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="14" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="14" t="s">
         <v>637</v>
       </c>
       <c r="B4" s="59" t="s">
@@ -6997,21 +7007,21 @@
       <c r="C4" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="14">
         <v>6.0</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14" t="s">
         <v>639</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -7023,21 +7033,21 @@
       <c r="E5" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="14" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>642</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -7046,21 +7056,21 @@
       <c r="C6" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="14">
         <v>6.0</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="14" t="s">
         <v>644</v>
       </c>
       <c r="B7" s="59" t="s">
@@ -7072,21 +7082,21 @@
       <c r="E7" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="14" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="14" t="s">
         <v>647</v>
       </c>
       <c r="B8" s="59" t="s">
@@ -7095,21 +7105,21 @@
       <c r="C8" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="14">
         <v>6.0</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="14" t="s">
         <v>649</v>
       </c>
       <c r="B9" s="59" t="s">
@@ -7121,21 +7131,21 @@
       <c r="E9" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="14" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="14" t="s">
         <v>652</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -7144,21 +7154,21 @@
       <c r="C10" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="14">
         <v>6.0</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="14" t="s">
         <v>654</v>
       </c>
       <c r="B11" s="59" t="s">
@@ -7170,21 +7180,21 @@
       <c r="E11" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="14" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="14" t="s">
         <v>657</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -7193,21 +7203,21 @@
       <c r="C12" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="14">
         <v>6.0</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="14" t="s">
         <v>659</v>
       </c>
       <c r="B13" s="59" t="s">
@@ -7219,21 +7229,21 @@
       <c r="E13" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="14" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="14" t="s">
         <v>662</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -7242,21 +7252,21 @@
       <c r="C14" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="14">
         <v>6.0</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="14" t="s">
         <v>664</v>
       </c>
       <c r="B15" s="59" t="s">
@@ -7268,21 +7278,21 @@
       <c r="E15" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="14" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="14" t="s">
         <v>667</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -7291,21 +7301,21 @@
       <c r="C16" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="14">
         <v>6.0</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="14" t="s">
         <v>669</v>
       </c>
       <c r="B17" s="59" t="s">
@@ -7317,21 +7327,21 @@
       <c r="E17" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="14" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="14" t="s">
         <v>672</v>
       </c>
       <c r="B18" s="59" t="s">
@@ -7340,21 +7350,21 @@
       <c r="C18" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="14">
         <v>6.0</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="14" t="s">
         <v>674</v>
       </c>
       <c r="B19" s="59" t="s">
@@ -7366,21 +7376,21 @@
       <c r="E19" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="14" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="14" t="s">
         <v>677</v>
       </c>
       <c r="B20" s="59" t="s">
@@ -7389,21 +7399,21 @@
       <c r="C20" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="14">
         <v>6.0</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="14" t="s">
         <v>679</v>
       </c>
       <c r="B21" s="59" t="s">
@@ -7415,21 +7425,21 @@
       <c r="E21" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="14" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="14" t="s">
         <v>682</v>
       </c>
       <c r="B22" s="59" t="s">
@@ -7438,21 +7448,21 @@
       <c r="C22" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="14">
         <v>6.0</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="14" t="s">
         <v>684</v>
       </c>
       <c r="B23" s="59" t="s">
@@ -7464,21 +7474,21 @@
       <c r="E23" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="14" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="14" t="s">
         <v>687</v>
       </c>
       <c r="B24" s="59" t="s">
@@ -7487,21 +7497,21 @@
       <c r="C24" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="14">
         <v>6.0</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="14" t="s">
         <v>689</v>
       </c>
       <c r="B25" s="59" t="s">
@@ -7513,21 +7523,21 @@
       <c r="E25" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="14" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="14" t="s">
         <v>692</v>
       </c>
       <c r="B26" s="59" t="s">
@@ -7536,21 +7546,21 @@
       <c r="C26" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="14">
         <v>6.0</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="14" t="s">
         <v>694</v>
       </c>
       <c r="B27" s="59" t="s">
@@ -7562,21 +7572,21 @@
       <c r="E27" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="14" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="14" t="s">
         <v>697</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -7585,21 +7595,21 @@
       <c r="C28" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="14">
         <v>6.0</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="14" t="s">
         <v>699</v>
       </c>
       <c r="B29" s="59" t="s">
@@ -7611,21 +7621,21 @@
       <c r="E29" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="14" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="14" t="s">
         <v>702</v>
       </c>
       <c r="B30" s="59" t="s">
@@ -7637,13 +7647,13 @@
       <c r="E30" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="14" t="s">
         <v>705</v>
       </c>
       <c r="L30" s="63" t="s">
@@ -7651,7 +7661,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="14" t="s">
         <v>707</v>
       </c>
       <c r="B31" s="59" t="s">
@@ -7660,21 +7670,21 @@
       <c r="C31" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="14">
         <v>0.0</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="14" t="s">
         <v>709</v>
       </c>
       <c r="B32" s="59" t="s">
@@ -7686,21 +7696,21 @@
       <c r="E32" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="14" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="14" t="s">
         <v>714</v>
       </c>
       <c r="B33" s="59" t="s">
@@ -7712,21 +7722,21 @@
       <c r="E33" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="14" t="s">
         <v>716</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="14" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="14" t="s">
         <v>719</v>
       </c>
       <c r="B34" s="59" t="s">
@@ -7738,21 +7748,21 @@
       <c r="E34" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="14" t="s">
         <v>721</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="14" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="14" t="s">
         <v>723</v>
       </c>
       <c r="B35" s="59" t="s">
@@ -7764,21 +7774,21 @@
       <c r="E35" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="14" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="14" t="s">
         <v>727</v>
       </c>
       <c r="B36" s="59" t="s">
@@ -7790,21 +7800,21 @@
       <c r="E36" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="14" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="14" t="s">
         <v>731</v>
       </c>
       <c r="B37" s="59" t="s">
@@ -7813,21 +7823,21 @@
       <c r="C37" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="14">
         <v>0.0</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="14" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="14" t="s">
         <v>733</v>
       </c>
       <c r="B38" s="59" t="s">
@@ -7839,21 +7849,21 @@
       <c r="E38" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="14" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="14" t="s">
         <v>737</v>
       </c>
       <c r="B39" s="59" t="s">
@@ -7862,21 +7872,21 @@
       <c r="C39" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="14">
         <v>0.0</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="14" t="s">
         <v>739</v>
       </c>
       <c r="B40" s="59" t="s">
@@ -7888,21 +7898,21 @@
       <c r="E40" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="14" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="14" t="s">
         <v>743</v>
       </c>
       <c r="B41" s="59" t="s">
@@ -7911,21 +7921,21 @@
       <c r="C41" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="14">
         <v>0.0</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="14" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="14" t="s">
         <v>745</v>
       </c>
       <c r="B42" s="59" t="s">
@@ -7937,21 +7947,21 @@
       <c r="E42" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="14" t="s">
         <v>616</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="14" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="14" t="s">
         <v>749</v>
       </c>
       <c r="B43" s="59" t="s">
@@ -7960,21 +7970,21 @@
       <c r="C43" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="14">
         <v>0.0</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="14" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="14" t="s">
         <v>751</v>
       </c>
       <c r="B44" s="59" t="s">
@@ -7986,24 +7996,24 @@
       <c r="E44" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="14" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="14" t="s">
         <v>755</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="29" t="s">
         <v>756</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -8012,17 +8022,17 @@
       <c r="D45" s="64" t="s">
         <v>758</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8203,74 +8213,74 @@
       <c r="Z1" s="10"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>768</v>
       </c>
       <c r="E2" s="64"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="14" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>770</v>
       </c>
       <c r="E3" s="64"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="14" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="14" t="s">
         <v>772</v>
       </c>
       <c r="E4" s="64"/>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="14" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="14" t="s">
         <v>773</v>
       </c>
       <c r="E5" s="64"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="14" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="14" t="s">
         <v>774</v>
       </c>
       <c r="E6" s="64"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="14" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="14" t="s">
         <v>775</v>
       </c>
       <c r="E7" s="64"/>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="14" t="s">
         <v>771</v>
       </c>
     </row>
@@ -8326,7 +8336,7 @@
       <c r="Z1" s="10"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>778</v>
       </c>
       <c r="C2" s="67" t="str">
@@ -8335,7 +8345,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>779</v>
       </c>
       <c r="C3" s="67" t="str">
@@ -8344,7 +8354,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="14" t="s">
         <v>780</v>
       </c>
       <c r="C4" s="67" t="str">
@@ -8353,7 +8363,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14" t="s">
         <v>781</v>
       </c>
       <c r="C5" s="67" t="str">
@@ -8362,7 +8372,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>771</v>
       </c>
       <c r="C6" s="68" t="str">
@@ -8372,7 +8382,7 @@
       <c r="D6" s="69"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="14" t="s">
         <v>782</v>
       </c>
       <c r="C7" s="68" t="str">
@@ -8431,7 +8441,7 @@
       <c r="Z1" s="10"/>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>785</v>
       </c>
       <c r="B2" s="71" t="s">
@@ -8463,7 +8473,7 @@
       <c r="Z2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>787</v>
       </c>
       <c r="B3" s="72" t="s">
@@ -8495,7 +8505,7 @@
       <c r="Z3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>789</v>
       </c>
       <c r="B4" s="72" t="s">
@@ -8527,7 +8537,7 @@
       <c r="Z4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>791</v>
       </c>
       <c r="B5" s="72" t="s">
@@ -8559,7 +8569,7 @@
       <c r="Z5" s="10"/>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>793</v>
       </c>
       <c r="B6" s="72" t="s">
@@ -8591,7 +8601,7 @@
       <c r="Z6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>795</v>
       </c>
       <c r="B7" s="72" t="s">
@@ -8623,7 +8633,7 @@
       <c r="Z7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>797</v>
       </c>
       <c r="B8" s="72" t="s">
@@ -8655,7 +8665,7 @@
       <c r="Z8" s="10"/>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>799</v>
       </c>
       <c r="B9" s="72" t="s">
@@ -8687,7 +8697,7 @@
       <c r="Z9" s="10"/>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>801</v>
       </c>
       <c r="B10" s="72" t="s">
@@ -8719,7 +8729,7 @@
       <c r="Z10" s="10"/>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>803</v>
       </c>
       <c r="B11" s="72" t="s">
@@ -8782,6 +8792,38 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
     </row>
+    <row r="13">
+      <c r="A13" s="74" t="s">
+        <v>807</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>808</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -8795,7 +8837,8 @@
     <hyperlink r:id="rId9" ref="B10"/>
     <hyperlink r:id="rId10" ref="B11"/>
     <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>